--- a/huddles_distance_matx.xlsx
+++ b/huddles_distance_matx.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AA64139-7DB1-7D48-B867-E0115AE60604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD3D1D-D524-9F47-8A91-012D2A6898DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1560" windowWidth="26840" windowHeight="15940" xr2:uid="{2A0B9FA3-5F18-1A4D-9485-C69511EE20EF}"/>
+    <workbookView xWindow="1580" yWindow="1560" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{2A0B9FA3-5F18-1A4D-9485-C69511EE20EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -378,6 +379,2942 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36961EBB-48B8-3640-83C7-A143BF2EEA38}">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AQ43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>210</v>
+      </c>
+      <c r="C1">
+        <v>212</v>
+      </c>
+      <c r="D1">
+        <v>214</v>
+      </c>
+      <c r="E1">
+        <v>216</v>
+      </c>
+      <c r="F1">
+        <v>220</v>
+      </c>
+      <c r="G1">
+        <v>252</v>
+      </c>
+      <c r="H1">
+        <v>254</v>
+      </c>
+      <c r="I1">
+        <v>255</v>
+      </c>
+      <c r="J1">
+        <v>256</v>
+      </c>
+      <c r="K1">
+        <v>257</v>
+      </c>
+      <c r="L1">
+        <v>259</v>
+      </c>
+      <c r="M1">
+        <v>261</v>
+      </c>
+      <c r="N1">
+        <v>262</v>
+      </c>
+      <c r="O1">
+        <v>263</v>
+      </c>
+      <c r="P1">
+        <v>264</v>
+      </c>
+      <c r="Q1">
+        <v>265</v>
+      </c>
+      <c r="R1">
+        <v>266</v>
+      </c>
+      <c r="S1">
+        <v>268</v>
+      </c>
+      <c r="T1">
+        <v>270</v>
+      </c>
+      <c r="U1">
+        <v>271</v>
+      </c>
+      <c r="V1">
+        <v>273</v>
+      </c>
+      <c r="W1">
+        <v>310</v>
+      </c>
+      <c r="X1">
+        <v>312</v>
+      </c>
+      <c r="Y1">
+        <v>314</v>
+      </c>
+      <c r="Z1">
+        <v>316</v>
+      </c>
+      <c r="AA1">
+        <v>320</v>
+      </c>
+      <c r="AB1">
+        <v>352</v>
+      </c>
+      <c r="AC1">
+        <v>354</v>
+      </c>
+      <c r="AD1">
+        <v>355</v>
+      </c>
+      <c r="AE1">
+        <v>356</v>
+      </c>
+      <c r="AF1">
+        <v>357</v>
+      </c>
+      <c r="AG1">
+        <v>359</v>
+      </c>
+      <c r="AH1">
+        <v>361</v>
+      </c>
+      <c r="AI1">
+        <v>362</v>
+      </c>
+      <c r="AJ1">
+        <v>363</v>
+      </c>
+      <c r="AK1">
+        <v>364</v>
+      </c>
+      <c r="AL1">
+        <v>365</v>
+      </c>
+      <c r="AM1">
+        <v>366</v>
+      </c>
+      <c r="AN1">
+        <v>368</v>
+      </c>
+      <c r="AO1">
+        <v>370</v>
+      </c>
+      <c r="AP1">
+        <v>371</v>
+      </c>
+      <c r="AQ1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>212</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>214</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>216</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>220</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>252</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>254</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>255</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>257</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>259</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>261</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>262</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>263</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>264</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>265</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>266</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>268</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>270</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>271</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>273</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>310</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <v>10</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>10</v>
+      </c>
+      <c r="U23">
+        <v>10</v>
+      </c>
+      <c r="V23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>312</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>10</v>
+      </c>
+      <c r="U24">
+        <v>10</v>
+      </c>
+      <c r="V24">
+        <v>10</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>314</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+      <c r="R25">
+        <v>10</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>10</v>
+      </c>
+      <c r="U25">
+        <v>10</v>
+      </c>
+      <c r="V25">
+        <v>10</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>316</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>10</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
+      <c r="R26">
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <v>10</v>
+      </c>
+      <c r="T26">
+        <v>10</v>
+      </c>
+      <c r="U26">
+        <v>10</v>
+      </c>
+      <c r="V26">
+        <v>10</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>320</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>10</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <v>10</v>
+      </c>
+      <c r="U27">
+        <v>10</v>
+      </c>
+      <c r="V27">
+        <v>10</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>352</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>10</v>
+      </c>
+      <c r="S28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <v>10</v>
+      </c>
+      <c r="U28">
+        <v>10</v>
+      </c>
+      <c r="V28">
+        <v>10</v>
+      </c>
+      <c r="W28">
+        <v>4</v>
+      </c>
+      <c r="X28">
+        <v>4</v>
+      </c>
+      <c r="Y28">
+        <v>4</v>
+      </c>
+      <c r="Z28">
+        <v>4</v>
+      </c>
+      <c r="AA28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>354</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
+      </c>
+      <c r="U29">
+        <v>10</v>
+      </c>
+      <c r="V29">
+        <v>10</v>
+      </c>
+      <c r="W29">
+        <v>4</v>
+      </c>
+      <c r="X29">
+        <v>4</v>
+      </c>
+      <c r="Y29">
+        <v>4</v>
+      </c>
+      <c r="Z29">
+        <v>4</v>
+      </c>
+      <c r="AA29">
+        <v>4</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>355</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+      <c r="P30">
+        <v>10</v>
+      </c>
+      <c r="Q30">
+        <v>10</v>
+      </c>
+      <c r="R30">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>10</v>
+      </c>
+      <c r="U30">
+        <v>10</v>
+      </c>
+      <c r="V30">
+        <v>10</v>
+      </c>
+      <c r="W30">
+        <v>4</v>
+      </c>
+      <c r="X30">
+        <v>4</v>
+      </c>
+      <c r="Y30">
+        <v>4</v>
+      </c>
+      <c r="Z30">
+        <v>4</v>
+      </c>
+      <c r="AA30">
+        <v>4</v>
+      </c>
+      <c r="AB30">
+        <v>2</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>356</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
+      <c r="R31">
+        <v>10</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>10</v>
+      </c>
+      <c r="U31">
+        <v>10</v>
+      </c>
+      <c r="V31">
+        <v>10</v>
+      </c>
+      <c r="W31">
+        <v>4</v>
+      </c>
+      <c r="X31">
+        <v>4</v>
+      </c>
+      <c r="Y31">
+        <v>4</v>
+      </c>
+      <c r="Z31">
+        <v>4</v>
+      </c>
+      <c r="AA31">
+        <v>4</v>
+      </c>
+      <c r="AB31">
+        <v>2</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>357</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>10</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <v>10</v>
+      </c>
+      <c r="U32">
+        <v>10</v>
+      </c>
+      <c r="V32">
+        <v>10</v>
+      </c>
+      <c r="W32">
+        <v>4</v>
+      </c>
+      <c r="X32">
+        <v>4</v>
+      </c>
+      <c r="Y32">
+        <v>4</v>
+      </c>
+      <c r="Z32">
+        <v>4</v>
+      </c>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AB32">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>359</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <v>10</v>
+      </c>
+      <c r="Q33">
+        <v>10</v>
+      </c>
+      <c r="R33">
+        <v>10</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+      <c r="T33">
+        <v>10</v>
+      </c>
+      <c r="U33">
+        <v>10</v>
+      </c>
+      <c r="V33">
+        <v>10</v>
+      </c>
+      <c r="W33">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>4</v>
+      </c>
+      <c r="Y33">
+        <v>4</v>
+      </c>
+      <c r="Z33">
+        <v>4</v>
+      </c>
+      <c r="AA33">
+        <v>4</v>
+      </c>
+      <c r="AB33">
+        <v>3</v>
+      </c>
+      <c r="AC33">
+        <v>2</v>
+      </c>
+      <c r="AD33">
+        <v>2</v>
+      </c>
+      <c r="AE33">
+        <v>2</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>361</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <v>10</v>
+      </c>
+      <c r="Q34">
+        <v>10</v>
+      </c>
+      <c r="R34">
+        <v>10</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34">
+        <v>10</v>
+      </c>
+      <c r="V34">
+        <v>10</v>
+      </c>
+      <c r="W34">
+        <v>4</v>
+      </c>
+      <c r="X34">
+        <v>4</v>
+      </c>
+      <c r="Y34">
+        <v>4</v>
+      </c>
+      <c r="Z34">
+        <v>4</v>
+      </c>
+      <c r="AA34">
+        <v>4</v>
+      </c>
+      <c r="AB34">
+        <v>3</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AD34">
+        <v>3</v>
+      </c>
+      <c r="AE34">
+        <v>2</v>
+      </c>
+      <c r="AF34">
+        <v>2</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>362</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>10</v>
+      </c>
+      <c r="Q35">
+        <v>10</v>
+      </c>
+      <c r="R35">
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35">
+        <v>10</v>
+      </c>
+      <c r="U35">
+        <v>10</v>
+      </c>
+      <c r="V35">
+        <v>10</v>
+      </c>
+      <c r="W35">
+        <v>4</v>
+      </c>
+      <c r="X35">
+        <v>4</v>
+      </c>
+      <c r="Y35">
+        <v>4</v>
+      </c>
+      <c r="Z35">
+        <v>4</v>
+      </c>
+      <c r="AA35">
+        <v>4</v>
+      </c>
+      <c r="AB35">
+        <v>3</v>
+      </c>
+      <c r="AC35">
+        <v>3</v>
+      </c>
+      <c r="AD35">
+        <v>3</v>
+      </c>
+      <c r="AE35">
+        <v>3</v>
+      </c>
+      <c r="AF35">
+        <v>3</v>
+      </c>
+      <c r="AG35">
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>363</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>10</v>
+      </c>
+      <c r="N36">
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <v>10</v>
+      </c>
+      <c r="P36">
+        <v>10</v>
+      </c>
+      <c r="Q36">
+        <v>10</v>
+      </c>
+      <c r="R36">
+        <v>10</v>
+      </c>
+      <c r="S36">
+        <v>10</v>
+      </c>
+      <c r="T36">
+        <v>10</v>
+      </c>
+      <c r="U36">
+        <v>10</v>
+      </c>
+      <c r="V36">
+        <v>10</v>
+      </c>
+      <c r="W36">
+        <v>4</v>
+      </c>
+      <c r="X36">
+        <v>4</v>
+      </c>
+      <c r="Y36">
+        <v>4</v>
+      </c>
+      <c r="Z36">
+        <v>4</v>
+      </c>
+      <c r="AA36">
+        <v>4</v>
+      </c>
+      <c r="AB36">
+        <v>3</v>
+      </c>
+      <c r="AC36">
+        <v>3</v>
+      </c>
+      <c r="AD36">
+        <v>3</v>
+      </c>
+      <c r="AE36">
+        <v>3</v>
+      </c>
+      <c r="AF36">
+        <v>3</v>
+      </c>
+      <c r="AG36">
+        <v>2</v>
+      </c>
+      <c r="AH36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>364</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>10</v>
+      </c>
+      <c r="M37">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37">
+        <v>10</v>
+      </c>
+      <c r="Q37">
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <v>10</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <v>10</v>
+      </c>
+      <c r="U37">
+        <v>10</v>
+      </c>
+      <c r="V37">
+        <v>10</v>
+      </c>
+      <c r="W37">
+        <v>4</v>
+      </c>
+      <c r="X37">
+        <v>4</v>
+      </c>
+      <c r="Y37">
+        <v>4</v>
+      </c>
+      <c r="Z37">
+        <v>4</v>
+      </c>
+      <c r="AA37">
+        <v>4</v>
+      </c>
+      <c r="AB37">
+        <v>3</v>
+      </c>
+      <c r="AC37">
+        <v>3</v>
+      </c>
+      <c r="AD37">
+        <v>3</v>
+      </c>
+      <c r="AE37">
+        <v>3</v>
+      </c>
+      <c r="AF37">
+        <v>3</v>
+      </c>
+      <c r="AG37">
+        <v>3</v>
+      </c>
+      <c r="AH37">
+        <v>3</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AJ37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>365</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <v>10</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <v>10</v>
+      </c>
+      <c r="P38">
+        <v>10</v>
+      </c>
+      <c r="Q38">
+        <v>10</v>
+      </c>
+      <c r="R38">
+        <v>10</v>
+      </c>
+      <c r="S38">
+        <v>10</v>
+      </c>
+      <c r="T38">
+        <v>10</v>
+      </c>
+      <c r="U38">
+        <v>10</v>
+      </c>
+      <c r="V38">
+        <v>10</v>
+      </c>
+      <c r="W38">
+        <v>4</v>
+      </c>
+      <c r="X38">
+        <v>4</v>
+      </c>
+      <c r="Y38">
+        <v>4</v>
+      </c>
+      <c r="Z38">
+        <v>4</v>
+      </c>
+      <c r="AA38">
+        <v>4</v>
+      </c>
+      <c r="AB38">
+        <v>3</v>
+      </c>
+      <c r="AC38">
+        <v>3</v>
+      </c>
+      <c r="AD38">
+        <v>3</v>
+      </c>
+      <c r="AE38">
+        <v>3</v>
+      </c>
+      <c r="AF38">
+        <v>3</v>
+      </c>
+      <c r="AG38">
+        <v>3</v>
+      </c>
+      <c r="AH38">
+        <v>2</v>
+      </c>
+      <c r="AI38">
+        <v>2</v>
+      </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>366</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>10</v>
+      </c>
+      <c r="P39">
+        <v>10</v>
+      </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+      <c r="R39">
+        <v>10</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>10</v>
+      </c>
+      <c r="U39">
+        <v>10</v>
+      </c>
+      <c r="V39">
+        <v>10</v>
+      </c>
+      <c r="W39">
+        <v>4</v>
+      </c>
+      <c r="X39">
+        <v>4</v>
+      </c>
+      <c r="Y39">
+        <v>4</v>
+      </c>
+      <c r="Z39">
+        <v>4</v>
+      </c>
+      <c r="AA39">
+        <v>4</v>
+      </c>
+      <c r="AB39">
+        <v>3</v>
+      </c>
+      <c r="AC39">
+        <v>3</v>
+      </c>
+      <c r="AD39">
+        <v>3</v>
+      </c>
+      <c r="AE39">
+        <v>3</v>
+      </c>
+      <c r="AF39">
+        <v>3</v>
+      </c>
+      <c r="AG39">
+        <v>3</v>
+      </c>
+      <c r="AH39">
+        <v>3</v>
+      </c>
+      <c r="AI39">
+        <v>2</v>
+      </c>
+      <c r="AJ39">
+        <v>3</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>368</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <v>10</v>
+      </c>
+      <c r="M40">
+        <v>10</v>
+      </c>
+      <c r="N40">
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>10</v>
+      </c>
+      <c r="P40">
+        <v>10</v>
+      </c>
+      <c r="Q40">
+        <v>10</v>
+      </c>
+      <c r="R40">
+        <v>10</v>
+      </c>
+      <c r="S40">
+        <v>10</v>
+      </c>
+      <c r="T40">
+        <v>10</v>
+      </c>
+      <c r="U40">
+        <v>10</v>
+      </c>
+      <c r="V40">
+        <v>10</v>
+      </c>
+      <c r="W40">
+        <v>4</v>
+      </c>
+      <c r="X40">
+        <v>4</v>
+      </c>
+      <c r="Y40">
+        <v>4</v>
+      </c>
+      <c r="Z40">
+        <v>4</v>
+      </c>
+      <c r="AA40">
+        <v>4</v>
+      </c>
+      <c r="AB40">
+        <v>3</v>
+      </c>
+      <c r="AC40">
+        <v>3</v>
+      </c>
+      <c r="AD40">
+        <v>3</v>
+      </c>
+      <c r="AE40">
+        <v>3</v>
+      </c>
+      <c r="AF40">
+        <v>3</v>
+      </c>
+      <c r="AG40">
+        <v>3</v>
+      </c>
+      <c r="AH40">
+        <v>3</v>
+      </c>
+      <c r="AI40">
+        <v>3</v>
+      </c>
+      <c r="AJ40">
+        <v>3</v>
+      </c>
+      <c r="AK40">
+        <v>2</v>
+      </c>
+      <c r="AL40">
+        <v>3</v>
+      </c>
+      <c r="AM40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>370</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>10</v>
+      </c>
+      <c r="P41">
+        <v>10</v>
+      </c>
+      <c r="Q41">
+        <v>10</v>
+      </c>
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>10</v>
+      </c>
+      <c r="T41">
+        <v>10</v>
+      </c>
+      <c r="U41">
+        <v>10</v>
+      </c>
+      <c r="V41">
+        <v>10</v>
+      </c>
+      <c r="W41">
+        <v>4</v>
+      </c>
+      <c r="X41">
+        <v>4</v>
+      </c>
+      <c r="Y41">
+        <v>4</v>
+      </c>
+      <c r="Z41">
+        <v>4</v>
+      </c>
+      <c r="AA41">
+        <v>4</v>
+      </c>
+      <c r="AB41">
+        <v>3</v>
+      </c>
+      <c r="AC41">
+        <v>3</v>
+      </c>
+      <c r="AD41">
+        <v>3</v>
+      </c>
+      <c r="AE41">
+        <v>3</v>
+      </c>
+      <c r="AF41">
+        <v>3</v>
+      </c>
+      <c r="AG41">
+        <v>3</v>
+      </c>
+      <c r="AH41">
+        <v>3</v>
+      </c>
+      <c r="AI41">
+        <v>3</v>
+      </c>
+      <c r="AJ41">
+        <v>3</v>
+      </c>
+      <c r="AK41">
+        <v>3</v>
+      </c>
+      <c r="AL41">
+        <v>3</v>
+      </c>
+      <c r="AM41">
+        <v>2</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>371</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>10</v>
+      </c>
+      <c r="O42">
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <v>10</v>
+      </c>
+      <c r="Q42">
+        <v>10</v>
+      </c>
+      <c r="R42">
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <v>10</v>
+      </c>
+      <c r="T42">
+        <v>10</v>
+      </c>
+      <c r="U42">
+        <v>10</v>
+      </c>
+      <c r="V42">
+        <v>10</v>
+      </c>
+      <c r="W42">
+        <v>4</v>
+      </c>
+      <c r="X42">
+        <v>4</v>
+      </c>
+      <c r="Y42">
+        <v>4</v>
+      </c>
+      <c r="Z42">
+        <v>4</v>
+      </c>
+      <c r="AA42">
+        <v>4</v>
+      </c>
+      <c r="AB42">
+        <v>3</v>
+      </c>
+      <c r="AC42">
+        <v>3</v>
+      </c>
+      <c r="AD42">
+        <v>3</v>
+      </c>
+      <c r="AE42">
+        <v>3</v>
+      </c>
+      <c r="AF42">
+        <v>3</v>
+      </c>
+      <c r="AG42">
+        <v>3</v>
+      </c>
+      <c r="AH42">
+        <v>3</v>
+      </c>
+      <c r="AI42">
+        <v>3</v>
+      </c>
+      <c r="AJ42">
+        <v>3</v>
+      </c>
+      <c r="AK42">
+        <v>3</v>
+      </c>
+      <c r="AL42">
+        <v>3</v>
+      </c>
+      <c r="AM42">
+        <v>2</v>
+      </c>
+      <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>373</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>10</v>
+      </c>
+      <c r="M43">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>10</v>
+      </c>
+      <c r="P43">
+        <v>10</v>
+      </c>
+      <c r="Q43">
+        <v>10</v>
+      </c>
+      <c r="R43">
+        <v>10</v>
+      </c>
+      <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <v>10</v>
+      </c>
+      <c r="U43">
+        <v>10</v>
+      </c>
+      <c r="V43">
+        <v>10</v>
+      </c>
+      <c r="W43">
+        <v>4</v>
+      </c>
+      <c r="X43">
+        <v>4</v>
+      </c>
+      <c r="Y43">
+        <v>4</v>
+      </c>
+      <c r="Z43">
+        <v>4</v>
+      </c>
+      <c r="AA43">
+        <v>4</v>
+      </c>
+      <c r="AB43">
+        <v>3</v>
+      </c>
+      <c r="AC43">
+        <v>3</v>
+      </c>
+      <c r="AD43">
+        <v>3</v>
+      </c>
+      <c r="AE43">
+        <v>3</v>
+      </c>
+      <c r="AF43">
+        <v>3</v>
+      </c>
+      <c r="AG43">
+        <v>3</v>
+      </c>
+      <c r="AH43">
+        <v>3</v>
+      </c>
+      <c r="AI43">
+        <v>3</v>
+      </c>
+      <c r="AJ43">
+        <v>3</v>
+      </c>
+      <c r="AK43">
+        <v>3</v>
+      </c>
+      <c r="AL43">
+        <v>3</v>
+      </c>
+      <c r="AM43">
+        <v>3</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>2</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C7B524-AEBC-A245-B348-AEAA9463987B}">
+  <dimension ref="A1:AQ43"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AQ43"/>
     </sheetView>
@@ -516,6 +3453,129 @@
       <c r="A2">
         <v>210</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>10</v>
+      </c>
+      <c r="Z2">
+        <v>10</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AB2">
+        <v>10</v>
+      </c>
+      <c r="AC2">
+        <v>10</v>
+      </c>
+      <c r="AD2">
+        <v>10</v>
+      </c>
+      <c r="AE2">
+        <v>10</v>
+      </c>
+      <c r="AF2">
+        <v>10</v>
+      </c>
+      <c r="AG2">
+        <v>10</v>
+      </c>
+      <c r="AH2">
+        <v>10</v>
+      </c>
+      <c r="AI2">
+        <v>10</v>
+      </c>
+      <c r="AJ2">
+        <v>10</v>
+      </c>
+      <c r="AK2">
+        <v>10</v>
+      </c>
+      <c r="AL2">
+        <v>10</v>
+      </c>
+      <c r="AM2">
+        <v>10</v>
+      </c>
+      <c r="AN2">
+        <v>10</v>
+      </c>
+      <c r="AO2">
+        <v>10</v>
+      </c>
+      <c r="AP2">
+        <v>10</v>
+      </c>
+      <c r="AQ2">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -524,6 +3584,126 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <v>10</v>
+      </c>
+      <c r="AA3">
+        <v>10</v>
+      </c>
+      <c r="AB3">
+        <v>10</v>
+      </c>
+      <c r="AC3">
+        <v>10</v>
+      </c>
+      <c r="AD3">
+        <v>10</v>
+      </c>
+      <c r="AE3">
+        <v>10</v>
+      </c>
+      <c r="AF3">
+        <v>10</v>
+      </c>
+      <c r="AG3">
+        <v>10</v>
+      </c>
+      <c r="AH3">
+        <v>10</v>
+      </c>
+      <c r="AI3">
+        <v>10</v>
+      </c>
+      <c r="AJ3">
+        <v>10</v>
+      </c>
+      <c r="AK3">
+        <v>10</v>
+      </c>
+      <c r="AL3">
+        <v>10</v>
+      </c>
+      <c r="AM3">
+        <v>10</v>
+      </c>
+      <c r="AN3">
+        <v>10</v>
+      </c>
+      <c r="AO3">
+        <v>10</v>
+      </c>
+      <c r="AP3">
+        <v>10</v>
+      </c>
+      <c r="AQ3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -535,6 +3715,123 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>10</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4">
+        <v>10</v>
+      </c>
+      <c r="AC4">
+        <v>10</v>
+      </c>
+      <c r="AD4">
+        <v>10</v>
+      </c>
+      <c r="AE4">
+        <v>10</v>
+      </c>
+      <c r="AF4">
+        <v>10</v>
+      </c>
+      <c r="AG4">
+        <v>10</v>
+      </c>
+      <c r="AH4">
+        <v>10</v>
+      </c>
+      <c r="AI4">
+        <v>10</v>
+      </c>
+      <c r="AJ4">
+        <v>10</v>
+      </c>
+      <c r="AK4">
+        <v>10</v>
+      </c>
+      <c r="AL4">
+        <v>10</v>
+      </c>
+      <c r="AM4">
+        <v>10</v>
+      </c>
+      <c r="AN4">
+        <v>10</v>
+      </c>
+      <c r="AO4">
+        <v>10</v>
+      </c>
+      <c r="AP4">
+        <v>10</v>
+      </c>
+      <c r="AQ4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -549,6 +3846,120 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AA5">
+        <v>10</v>
+      </c>
+      <c r="AB5">
+        <v>10</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>10</v>
+      </c>
+      <c r="AF5">
+        <v>10</v>
+      </c>
+      <c r="AG5">
+        <v>10</v>
+      </c>
+      <c r="AH5">
+        <v>10</v>
+      </c>
+      <c r="AI5">
+        <v>10</v>
+      </c>
+      <c r="AJ5">
+        <v>10</v>
+      </c>
+      <c r="AK5">
+        <v>10</v>
+      </c>
+      <c r="AL5">
+        <v>10</v>
+      </c>
+      <c r="AM5">
+        <v>10</v>
+      </c>
+      <c r="AN5">
+        <v>10</v>
+      </c>
+      <c r="AO5">
+        <v>10</v>
+      </c>
+      <c r="AP5">
+        <v>10</v>
+      </c>
+      <c r="AQ5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -566,6 +3977,117 @@
       <c r="E6">
         <v>2</v>
       </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
+      <c r="AA6">
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <v>10</v>
+      </c>
+      <c r="AC6">
+        <v>10</v>
+      </c>
+      <c r="AD6">
+        <v>10</v>
+      </c>
+      <c r="AE6">
+        <v>10</v>
+      </c>
+      <c r="AF6">
+        <v>10</v>
+      </c>
+      <c r="AG6">
+        <v>10</v>
+      </c>
+      <c r="AH6">
+        <v>10</v>
+      </c>
+      <c r="AI6">
+        <v>10</v>
+      </c>
+      <c r="AJ6">
+        <v>10</v>
+      </c>
+      <c r="AK6">
+        <v>10</v>
+      </c>
+      <c r="AL6">
+        <v>10</v>
+      </c>
+      <c r="AM6">
+        <v>10</v>
+      </c>
+      <c r="AN6">
+        <v>10</v>
+      </c>
+      <c r="AO6">
+        <v>10</v>
+      </c>
+      <c r="AP6">
+        <v>10</v>
+      </c>
+      <c r="AQ6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -586,6 +4108,114 @@
       <c r="F7">
         <v>4</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
+        <v>10</v>
+      </c>
+      <c r="AB7">
+        <v>10</v>
+      </c>
+      <c r="AC7">
+        <v>10</v>
+      </c>
+      <c r="AD7">
+        <v>10</v>
+      </c>
+      <c r="AE7">
+        <v>10</v>
+      </c>
+      <c r="AF7">
+        <v>10</v>
+      </c>
+      <c r="AG7">
+        <v>10</v>
+      </c>
+      <c r="AH7">
+        <v>10</v>
+      </c>
+      <c r="AI7">
+        <v>10</v>
+      </c>
+      <c r="AJ7">
+        <v>10</v>
+      </c>
+      <c r="AK7">
+        <v>10</v>
+      </c>
+      <c r="AL7">
+        <v>10</v>
+      </c>
+      <c r="AM7">
+        <v>10</v>
+      </c>
+      <c r="AN7">
+        <v>10</v>
+      </c>
+      <c r="AO7">
+        <v>10</v>
+      </c>
+      <c r="AP7">
+        <v>10</v>
+      </c>
+      <c r="AQ7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -609,6 +4239,111 @@
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <v>10</v>
+      </c>
+      <c r="AA8">
+        <v>10</v>
+      </c>
+      <c r="AB8">
+        <v>10</v>
+      </c>
+      <c r="AC8">
+        <v>10</v>
+      </c>
+      <c r="AD8">
+        <v>10</v>
+      </c>
+      <c r="AE8">
+        <v>10</v>
+      </c>
+      <c r="AF8">
+        <v>10</v>
+      </c>
+      <c r="AG8">
+        <v>10</v>
+      </c>
+      <c r="AH8">
+        <v>10</v>
+      </c>
+      <c r="AI8">
+        <v>10</v>
+      </c>
+      <c r="AJ8">
+        <v>10</v>
+      </c>
+      <c r="AK8">
+        <v>10</v>
+      </c>
+      <c r="AL8">
+        <v>10</v>
+      </c>
+      <c r="AM8">
+        <v>10</v>
+      </c>
+      <c r="AN8">
+        <v>10</v>
+      </c>
+      <c r="AO8">
+        <v>10</v>
+      </c>
+      <c r="AP8">
+        <v>10</v>
+      </c>
+      <c r="AQ8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -635,6 +4370,108 @@
       <c r="H9">
         <v>2</v>
       </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+      <c r="AA9">
+        <v>10</v>
+      </c>
+      <c r="AB9">
+        <v>10</v>
+      </c>
+      <c r="AC9">
+        <v>10</v>
+      </c>
+      <c r="AD9">
+        <v>10</v>
+      </c>
+      <c r="AE9">
+        <v>10</v>
+      </c>
+      <c r="AF9">
+        <v>10</v>
+      </c>
+      <c r="AG9">
+        <v>10</v>
+      </c>
+      <c r="AH9">
+        <v>10</v>
+      </c>
+      <c r="AI9">
+        <v>10</v>
+      </c>
+      <c r="AJ9">
+        <v>10</v>
+      </c>
+      <c r="AK9">
+        <v>10</v>
+      </c>
+      <c r="AL9">
+        <v>10</v>
+      </c>
+      <c r="AM9">
+        <v>10</v>
+      </c>
+      <c r="AN9">
+        <v>10</v>
+      </c>
+      <c r="AO9">
+        <v>10</v>
+      </c>
+      <c r="AP9">
+        <v>10</v>
+      </c>
+      <c r="AQ9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -664,6 +4501,105 @@
       <c r="I10">
         <v>2</v>
       </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>10</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
+        <v>10</v>
+      </c>
+      <c r="AC10">
+        <v>10</v>
+      </c>
+      <c r="AD10">
+        <v>10</v>
+      </c>
+      <c r="AE10">
+        <v>10</v>
+      </c>
+      <c r="AF10">
+        <v>10</v>
+      </c>
+      <c r="AG10">
+        <v>10</v>
+      </c>
+      <c r="AH10">
+        <v>10</v>
+      </c>
+      <c r="AI10">
+        <v>10</v>
+      </c>
+      <c r="AJ10">
+        <v>10</v>
+      </c>
+      <c r="AK10">
+        <v>10</v>
+      </c>
+      <c r="AL10">
+        <v>10</v>
+      </c>
+      <c r="AM10">
+        <v>10</v>
+      </c>
+      <c r="AN10">
+        <v>10</v>
+      </c>
+      <c r="AO10">
+        <v>10</v>
+      </c>
+      <c r="AP10">
+        <v>10</v>
+      </c>
+      <c r="AQ10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -696,6 +4632,102 @@
       <c r="J11">
         <v>2</v>
       </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <v>10</v>
+      </c>
+      <c r="AC11">
+        <v>10</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11">
+        <v>10</v>
+      </c>
+      <c r="AF11">
+        <v>10</v>
+      </c>
+      <c r="AG11">
+        <v>10</v>
+      </c>
+      <c r="AH11">
+        <v>10</v>
+      </c>
+      <c r="AI11">
+        <v>10</v>
+      </c>
+      <c r="AJ11">
+        <v>10</v>
+      </c>
+      <c r="AK11">
+        <v>10</v>
+      </c>
+      <c r="AL11">
+        <v>10</v>
+      </c>
+      <c r="AM11">
+        <v>10</v>
+      </c>
+      <c r="AN11">
+        <v>10</v>
+      </c>
+      <c r="AO11">
+        <v>10</v>
+      </c>
+      <c r="AP11">
+        <v>10</v>
+      </c>
+      <c r="AQ11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -731,6 +4763,99 @@
       <c r="K12">
         <v>1</v>
       </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12">
+        <v>10</v>
+      </c>
+      <c r="AC12">
+        <v>10</v>
+      </c>
+      <c r="AD12">
+        <v>10</v>
+      </c>
+      <c r="AE12">
+        <v>10</v>
+      </c>
+      <c r="AF12">
+        <v>10</v>
+      </c>
+      <c r="AG12">
+        <v>10</v>
+      </c>
+      <c r="AH12">
+        <v>10</v>
+      </c>
+      <c r="AI12">
+        <v>10</v>
+      </c>
+      <c r="AJ12">
+        <v>10</v>
+      </c>
+      <c r="AK12">
+        <v>10</v>
+      </c>
+      <c r="AL12">
+        <v>10</v>
+      </c>
+      <c r="AM12">
+        <v>10</v>
+      </c>
+      <c r="AN12">
+        <v>10</v>
+      </c>
+      <c r="AO12">
+        <v>10</v>
+      </c>
+      <c r="AP12">
+        <v>10</v>
+      </c>
+      <c r="AQ12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -769,6 +4894,96 @@
       <c r="L13">
         <v>1</v>
       </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+      <c r="AA13">
+        <v>10</v>
+      </c>
+      <c r="AB13">
+        <v>10</v>
+      </c>
+      <c r="AC13">
+        <v>10</v>
+      </c>
+      <c r="AD13">
+        <v>10</v>
+      </c>
+      <c r="AE13">
+        <v>10</v>
+      </c>
+      <c r="AF13">
+        <v>10</v>
+      </c>
+      <c r="AG13">
+        <v>10</v>
+      </c>
+      <c r="AH13">
+        <v>10</v>
+      </c>
+      <c r="AI13">
+        <v>10</v>
+      </c>
+      <c r="AJ13">
+        <v>10</v>
+      </c>
+      <c r="AK13">
+        <v>10</v>
+      </c>
+      <c r="AL13">
+        <v>10</v>
+      </c>
+      <c r="AM13">
+        <v>10</v>
+      </c>
+      <c r="AN13">
+        <v>10</v>
+      </c>
+      <c r="AO13">
+        <v>10</v>
+      </c>
+      <c r="AP13">
+        <v>10</v>
+      </c>
+      <c r="AQ13">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -810,6 +5025,93 @@
       <c r="M14">
         <v>2</v>
       </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <v>10</v>
+      </c>
+      <c r="Y14">
+        <v>10</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
+        <v>10</v>
+      </c>
+      <c r="AB14">
+        <v>10</v>
+      </c>
+      <c r="AC14">
+        <v>10</v>
+      </c>
+      <c r="AD14">
+        <v>10</v>
+      </c>
+      <c r="AE14">
+        <v>10</v>
+      </c>
+      <c r="AF14">
+        <v>10</v>
+      </c>
+      <c r="AG14">
+        <v>10</v>
+      </c>
+      <c r="AH14">
+        <v>10</v>
+      </c>
+      <c r="AI14">
+        <v>10</v>
+      </c>
+      <c r="AJ14">
+        <v>10</v>
+      </c>
+      <c r="AK14">
+        <v>10</v>
+      </c>
+      <c r="AL14">
+        <v>10</v>
+      </c>
+      <c r="AM14">
+        <v>10</v>
+      </c>
+      <c r="AN14">
+        <v>10</v>
+      </c>
+      <c r="AO14">
+        <v>10</v>
+      </c>
+      <c r="AP14">
+        <v>10</v>
+      </c>
+      <c r="AQ14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -854,6 +5156,90 @@
       <c r="N15">
         <v>2</v>
       </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>10</v>
+      </c>
+      <c r="AA15">
+        <v>10</v>
+      </c>
+      <c r="AB15">
+        <v>10</v>
+      </c>
+      <c r="AC15">
+        <v>10</v>
+      </c>
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15">
+        <v>10</v>
+      </c>
+      <c r="AF15">
+        <v>10</v>
+      </c>
+      <c r="AG15">
+        <v>10</v>
+      </c>
+      <c r="AH15">
+        <v>10</v>
+      </c>
+      <c r="AI15">
+        <v>10</v>
+      </c>
+      <c r="AJ15">
+        <v>10</v>
+      </c>
+      <c r="AK15">
+        <v>10</v>
+      </c>
+      <c r="AL15">
+        <v>10</v>
+      </c>
+      <c r="AM15">
+        <v>10</v>
+      </c>
+      <c r="AN15">
+        <v>10</v>
+      </c>
+      <c r="AO15">
+        <v>10</v>
+      </c>
+      <c r="AP15">
+        <v>10</v>
+      </c>
+      <c r="AQ15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -901,8 +5287,89 @@
       <c r="O16">
         <v>2</v>
       </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <v>10</v>
+      </c>
+      <c r="Z16">
+        <v>10</v>
+      </c>
+      <c r="AA16">
+        <v>10</v>
+      </c>
+      <c r="AB16">
+        <v>10</v>
+      </c>
+      <c r="AC16">
+        <v>10</v>
+      </c>
+      <c r="AD16">
+        <v>10</v>
+      </c>
+      <c r="AE16">
+        <v>10</v>
+      </c>
+      <c r="AF16">
+        <v>10</v>
+      </c>
+      <c r="AG16">
+        <v>10</v>
+      </c>
+      <c r="AH16">
+        <v>10</v>
+      </c>
+      <c r="AI16">
+        <v>10</v>
+      </c>
+      <c r="AJ16">
+        <v>10</v>
+      </c>
+      <c r="AK16">
+        <v>10</v>
+      </c>
+      <c r="AL16">
+        <v>10</v>
+      </c>
+      <c r="AM16">
+        <v>10</v>
+      </c>
+      <c r="AN16">
+        <v>10</v>
+      </c>
+      <c r="AO16">
+        <v>10</v>
+      </c>
+      <c r="AP16">
+        <v>10</v>
+      </c>
+      <c r="AQ16">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>265</v>
       </c>
@@ -951,8 +5418,86 @@
       <c r="P17">
         <v>2</v>
       </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>10</v>
+      </c>
+      <c r="X17">
+        <v>10</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <v>10</v>
+      </c>
+      <c r="AA17">
+        <v>10</v>
+      </c>
+      <c r="AB17">
+        <v>10</v>
+      </c>
+      <c r="AC17">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>10</v>
+      </c>
+      <c r="AE17">
+        <v>10</v>
+      </c>
+      <c r="AF17">
+        <v>10</v>
+      </c>
+      <c r="AG17">
+        <v>10</v>
+      </c>
+      <c r="AH17">
+        <v>10</v>
+      </c>
+      <c r="AI17">
+        <v>10</v>
+      </c>
+      <c r="AJ17">
+        <v>10</v>
+      </c>
+      <c r="AK17">
+        <v>10</v>
+      </c>
+      <c r="AL17">
+        <v>10</v>
+      </c>
+      <c r="AM17">
+        <v>10</v>
+      </c>
+      <c r="AN17">
+        <v>10</v>
+      </c>
+      <c r="AO17">
+        <v>10</v>
+      </c>
+      <c r="AP17">
+        <v>10</v>
+      </c>
+      <c r="AQ17">
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>266</v>
       </c>
@@ -1004,8 +5549,83 @@
       <c r="Q18">
         <v>2</v>
       </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>10</v>
+      </c>
+      <c r="X18">
+        <v>10</v>
+      </c>
+      <c r="Y18">
+        <v>10</v>
+      </c>
+      <c r="Z18">
+        <v>10</v>
+      </c>
+      <c r="AA18">
+        <v>10</v>
+      </c>
+      <c r="AB18">
+        <v>10</v>
+      </c>
+      <c r="AC18">
+        <v>10</v>
+      </c>
+      <c r="AD18">
+        <v>10</v>
+      </c>
+      <c r="AE18">
+        <v>10</v>
+      </c>
+      <c r="AF18">
+        <v>10</v>
+      </c>
+      <c r="AG18">
+        <v>10</v>
+      </c>
+      <c r="AH18">
+        <v>10</v>
+      </c>
+      <c r="AI18">
+        <v>10</v>
+      </c>
+      <c r="AJ18">
+        <v>10</v>
+      </c>
+      <c r="AK18">
+        <v>10</v>
+      </c>
+      <c r="AL18">
+        <v>10</v>
+      </c>
+      <c r="AM18">
+        <v>10</v>
+      </c>
+      <c r="AN18">
+        <v>10</v>
+      </c>
+      <c r="AO18">
+        <v>10</v>
+      </c>
+      <c r="AP18">
+        <v>10</v>
+      </c>
+      <c r="AQ18">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>268</v>
       </c>
@@ -1060,8 +5680,80 @@
       <c r="R19">
         <v>1</v>
       </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>10</v>
+      </c>
+      <c r="X19">
+        <v>10</v>
+      </c>
+      <c r="Y19">
+        <v>10</v>
+      </c>
+      <c r="Z19">
+        <v>10</v>
+      </c>
+      <c r="AA19">
+        <v>10</v>
+      </c>
+      <c r="AB19">
+        <v>10</v>
+      </c>
+      <c r="AC19">
+        <v>10</v>
+      </c>
+      <c r="AD19">
+        <v>10</v>
+      </c>
+      <c r="AE19">
+        <v>10</v>
+      </c>
+      <c r="AF19">
+        <v>10</v>
+      </c>
+      <c r="AG19">
+        <v>10</v>
+      </c>
+      <c r="AH19">
+        <v>10</v>
+      </c>
+      <c r="AI19">
+        <v>10</v>
+      </c>
+      <c r="AJ19">
+        <v>10</v>
+      </c>
+      <c r="AK19">
+        <v>10</v>
+      </c>
+      <c r="AL19">
+        <v>10</v>
+      </c>
+      <c r="AM19">
+        <v>10</v>
+      </c>
+      <c r="AN19">
+        <v>10</v>
+      </c>
+      <c r="AO19">
+        <v>10</v>
+      </c>
+      <c r="AP19">
+        <v>10</v>
+      </c>
+      <c r="AQ19">
+        <v>10</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>270</v>
       </c>
@@ -1119,8 +5811,77 @@
       <c r="S20">
         <v>1</v>
       </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>10</v>
+      </c>
+      <c r="X20">
+        <v>10</v>
+      </c>
+      <c r="Y20">
+        <v>10</v>
+      </c>
+      <c r="Z20">
+        <v>10</v>
+      </c>
+      <c r="AA20">
+        <v>10</v>
+      </c>
+      <c r="AB20">
+        <v>10</v>
+      </c>
+      <c r="AC20">
+        <v>10</v>
+      </c>
+      <c r="AD20">
+        <v>10</v>
+      </c>
+      <c r="AE20">
+        <v>10</v>
+      </c>
+      <c r="AF20">
+        <v>10</v>
+      </c>
+      <c r="AG20">
+        <v>10</v>
+      </c>
+      <c r="AH20">
+        <v>10</v>
+      </c>
+      <c r="AI20">
+        <v>10</v>
+      </c>
+      <c r="AJ20">
+        <v>10</v>
+      </c>
+      <c r="AK20">
+        <v>10</v>
+      </c>
+      <c r="AL20">
+        <v>10</v>
+      </c>
+      <c r="AM20">
+        <v>10</v>
+      </c>
+      <c r="AN20">
+        <v>10</v>
+      </c>
+      <c r="AO20">
+        <v>10</v>
+      </c>
+      <c r="AP20">
+        <v>10</v>
+      </c>
+      <c r="AQ20">
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>271</v>
       </c>
@@ -1181,8 +5942,74 @@
       <c r="T21">
         <v>2</v>
       </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>10</v>
+      </c>
+      <c r="X21">
+        <v>10</v>
+      </c>
+      <c r="Y21">
+        <v>10</v>
+      </c>
+      <c r="Z21">
+        <v>10</v>
+      </c>
+      <c r="AA21">
+        <v>10</v>
+      </c>
+      <c r="AB21">
+        <v>10</v>
+      </c>
+      <c r="AC21">
+        <v>10</v>
+      </c>
+      <c r="AD21">
+        <v>10</v>
+      </c>
+      <c r="AE21">
+        <v>10</v>
+      </c>
+      <c r="AF21">
+        <v>10</v>
+      </c>
+      <c r="AG21">
+        <v>10</v>
+      </c>
+      <c r="AH21">
+        <v>10</v>
+      </c>
+      <c r="AI21">
+        <v>10</v>
+      </c>
+      <c r="AJ21">
+        <v>10</v>
+      </c>
+      <c r="AK21">
+        <v>10</v>
+      </c>
+      <c r="AL21">
+        <v>10</v>
+      </c>
+      <c r="AM21">
+        <v>10</v>
+      </c>
+      <c r="AN21">
+        <v>10</v>
+      </c>
+      <c r="AO21">
+        <v>10</v>
+      </c>
+      <c r="AP21">
+        <v>10</v>
+      </c>
+      <c r="AQ21">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>273</v>
       </c>
@@ -1246,8 +6073,71 @@
       <c r="U22">
         <v>1</v>
       </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <v>10</v>
+      </c>
+      <c r="Y22">
+        <v>10</v>
+      </c>
+      <c r="Z22">
+        <v>10</v>
+      </c>
+      <c r="AA22">
+        <v>10</v>
+      </c>
+      <c r="AB22">
+        <v>10</v>
+      </c>
+      <c r="AC22">
+        <v>10</v>
+      </c>
+      <c r="AD22">
+        <v>10</v>
+      </c>
+      <c r="AE22">
+        <v>10</v>
+      </c>
+      <c r="AF22">
+        <v>10</v>
+      </c>
+      <c r="AG22">
+        <v>10</v>
+      </c>
+      <c r="AH22">
+        <v>10</v>
+      </c>
+      <c r="AI22">
+        <v>10</v>
+      </c>
+      <c r="AJ22">
+        <v>10</v>
+      </c>
+      <c r="AK22">
+        <v>10</v>
+      </c>
+      <c r="AL22">
+        <v>10</v>
+      </c>
+      <c r="AM22">
+        <v>10</v>
+      </c>
+      <c r="AN22">
+        <v>10</v>
+      </c>
+      <c r="AO22">
+        <v>10</v>
+      </c>
+      <c r="AP22">
+        <v>10</v>
+      </c>
+      <c r="AQ22">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>310</v>
       </c>
@@ -1314,8 +6204,68 @@
       <c r="V23">
         <v>10</v>
       </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>3</v>
+      </c>
+      <c r="AA23">
+        <v>3</v>
+      </c>
+      <c r="AB23">
+        <v>4</v>
+      </c>
+      <c r="AC23">
+        <v>4</v>
+      </c>
+      <c r="AD23">
+        <v>4</v>
+      </c>
+      <c r="AE23">
+        <v>4</v>
+      </c>
+      <c r="AF23">
+        <v>4</v>
+      </c>
+      <c r="AG23">
+        <v>4</v>
+      </c>
+      <c r="AH23">
+        <v>4</v>
+      </c>
+      <c r="AI23">
+        <v>4</v>
+      </c>
+      <c r="AJ23">
+        <v>4</v>
+      </c>
+      <c r="AK23">
+        <v>4</v>
+      </c>
+      <c r="AL23">
+        <v>4</v>
+      </c>
+      <c r="AM23">
+        <v>4</v>
+      </c>
+      <c r="AN23">
+        <v>4</v>
+      </c>
+      <c r="AO23">
+        <v>4</v>
+      </c>
+      <c r="AP23">
+        <v>4</v>
+      </c>
+      <c r="AQ23">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>312</v>
       </c>
@@ -1385,8 +6335,65 @@
       <c r="W24">
         <v>1</v>
       </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>3</v>
+      </c>
+      <c r="AB24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>4</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+      <c r="AE24">
+        <v>4</v>
+      </c>
+      <c r="AF24">
+        <v>4</v>
+      </c>
+      <c r="AG24">
+        <v>4</v>
+      </c>
+      <c r="AH24">
+        <v>4</v>
+      </c>
+      <c r="AI24">
+        <v>4</v>
+      </c>
+      <c r="AJ24">
+        <v>4</v>
+      </c>
+      <c r="AK24">
+        <v>4</v>
+      </c>
+      <c r="AL24">
+        <v>4</v>
+      </c>
+      <c r="AM24">
+        <v>4</v>
+      </c>
+      <c r="AN24">
+        <v>4</v>
+      </c>
+      <c r="AO24">
+        <v>4</v>
+      </c>
+      <c r="AP24">
+        <v>4</v>
+      </c>
+      <c r="AQ24">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>314</v>
       </c>
@@ -1459,8 +6466,62 @@
       <c r="X25">
         <v>1</v>
       </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+      <c r="AB25">
+        <v>4</v>
+      </c>
+      <c r="AC25">
+        <v>4</v>
+      </c>
+      <c r="AD25">
+        <v>4</v>
+      </c>
+      <c r="AE25">
+        <v>4</v>
+      </c>
+      <c r="AF25">
+        <v>4</v>
+      </c>
+      <c r="AG25">
+        <v>4</v>
+      </c>
+      <c r="AH25">
+        <v>4</v>
+      </c>
+      <c r="AI25">
+        <v>4</v>
+      </c>
+      <c r="AJ25">
+        <v>4</v>
+      </c>
+      <c r="AK25">
+        <v>4</v>
+      </c>
+      <c r="AL25">
+        <v>4</v>
+      </c>
+      <c r="AM25">
+        <v>4</v>
+      </c>
+      <c r="AN25">
+        <v>4</v>
+      </c>
+      <c r="AO25">
+        <v>4</v>
+      </c>
+      <c r="AP25">
+        <v>4</v>
+      </c>
+      <c r="AQ25">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>316</v>
       </c>
@@ -1536,8 +6597,59 @@
       <c r="Y26">
         <v>1</v>
       </c>
+      <c r="AA26">
+        <v>2</v>
+      </c>
+      <c r="AB26">
+        <v>4</v>
+      </c>
+      <c r="AC26">
+        <v>4</v>
+      </c>
+      <c r="AD26">
+        <v>4</v>
+      </c>
+      <c r="AE26">
+        <v>4</v>
+      </c>
+      <c r="AF26">
+        <v>4</v>
+      </c>
+      <c r="AG26">
+        <v>4</v>
+      </c>
+      <c r="AH26">
+        <v>4</v>
+      </c>
+      <c r="AI26">
+        <v>4</v>
+      </c>
+      <c r="AJ26">
+        <v>4</v>
+      </c>
+      <c r="AK26">
+        <v>4</v>
+      </c>
+      <c r="AL26">
+        <v>4</v>
+      </c>
+      <c r="AM26">
+        <v>4</v>
+      </c>
+      <c r="AN26">
+        <v>4</v>
+      </c>
+      <c r="AO26">
+        <v>4</v>
+      </c>
+      <c r="AP26">
+        <v>4</v>
+      </c>
+      <c r="AQ26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>320</v>
       </c>
@@ -1616,8 +6728,56 @@
       <c r="Z27">
         <v>2</v>
       </c>
+      <c r="AB27">
+        <v>4</v>
+      </c>
+      <c r="AC27">
+        <v>4</v>
+      </c>
+      <c r="AD27">
+        <v>4</v>
+      </c>
+      <c r="AE27">
+        <v>4</v>
+      </c>
+      <c r="AF27">
+        <v>4</v>
+      </c>
+      <c r="AG27">
+        <v>4</v>
+      </c>
+      <c r="AH27">
+        <v>4</v>
+      </c>
+      <c r="AI27">
+        <v>4</v>
+      </c>
+      <c r="AJ27">
+        <v>4</v>
+      </c>
+      <c r="AK27">
+        <v>4</v>
+      </c>
+      <c r="AL27">
+        <v>4</v>
+      </c>
+      <c r="AM27">
+        <v>4</v>
+      </c>
+      <c r="AN27">
+        <v>4</v>
+      </c>
+      <c r="AO27">
+        <v>4</v>
+      </c>
+      <c r="AP27">
+        <v>4</v>
+      </c>
+      <c r="AQ27">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>352</v>
       </c>
@@ -1699,8 +6859,53 @@
       <c r="AA28">
         <v>4</v>
       </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>2</v>
+      </c>
+      <c r="AE28">
+        <v>2</v>
+      </c>
+      <c r="AF28">
+        <v>2</v>
+      </c>
+      <c r="AG28">
+        <v>3</v>
+      </c>
+      <c r="AH28">
+        <v>3</v>
+      </c>
+      <c r="AI28">
+        <v>3</v>
+      </c>
+      <c r="AJ28">
+        <v>3</v>
+      </c>
+      <c r="AK28">
+        <v>3</v>
+      </c>
+      <c r="AL28">
+        <v>3</v>
+      </c>
+      <c r="AM28">
+        <v>3</v>
+      </c>
+      <c r="AN28">
+        <v>3</v>
+      </c>
+      <c r="AO28">
+        <v>3</v>
+      </c>
+      <c r="AP28">
+        <v>3</v>
+      </c>
+      <c r="AQ28">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>354</v>
       </c>
@@ -1785,8 +6990,50 @@
       <c r="AB29">
         <v>1</v>
       </c>
+      <c r="AD29">
+        <v>2</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>2</v>
+      </c>
+      <c r="AG29">
+        <v>2</v>
+      </c>
+      <c r="AH29">
+        <v>3</v>
+      </c>
+      <c r="AI29">
+        <v>3</v>
+      </c>
+      <c r="AJ29">
+        <v>3</v>
+      </c>
+      <c r="AK29">
+        <v>3</v>
+      </c>
+      <c r="AL29">
+        <v>3</v>
+      </c>
+      <c r="AM29">
+        <v>3</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>3</v>
+      </c>
+      <c r="AP29">
+        <v>3</v>
+      </c>
+      <c r="AQ29">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>355</v>
       </c>
@@ -1874,8 +7121,47 @@
       <c r="AC30">
         <v>2</v>
       </c>
+      <c r="AE30">
+        <v>2</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>2</v>
+      </c>
+      <c r="AH30">
+        <v>3</v>
+      </c>
+      <c r="AI30">
+        <v>3</v>
+      </c>
+      <c r="AJ30">
+        <v>3</v>
+      </c>
+      <c r="AK30">
+        <v>3</v>
+      </c>
+      <c r="AL30">
+        <v>3</v>
+      </c>
+      <c r="AM30">
+        <v>3</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>3</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>356</v>
       </c>
@@ -1966,8 +7252,44 @@
       <c r="AD31">
         <v>2</v>
       </c>
+      <c r="AF31">
+        <v>2</v>
+      </c>
+      <c r="AG31">
+        <v>2</v>
+      </c>
+      <c r="AH31">
+        <v>2</v>
+      </c>
+      <c r="AI31">
+        <v>3</v>
+      </c>
+      <c r="AJ31">
+        <v>3</v>
+      </c>
+      <c r="AK31">
+        <v>3</v>
+      </c>
+      <c r="AL31">
+        <v>3</v>
+      </c>
+      <c r="AM31">
+        <v>3</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>357</v>
       </c>
@@ -2061,8 +7383,41 @@
       <c r="AE32">
         <v>2</v>
       </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>2</v>
+      </c>
+      <c r="AI32">
+        <v>3</v>
+      </c>
+      <c r="AJ32">
+        <v>3</v>
+      </c>
+      <c r="AK32">
+        <v>3</v>
+      </c>
+      <c r="AL32">
+        <v>3</v>
+      </c>
+      <c r="AM32">
+        <v>3</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <v>3</v>
+      </c>
+      <c r="AQ32">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>359</v>
       </c>
@@ -2159,8 +7514,38 @@
       <c r="AF33">
         <v>1</v>
       </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>2</v>
+      </c>
+      <c r="AJ33">
+        <v>2</v>
+      </c>
+      <c r="AK33">
+        <v>3</v>
+      </c>
+      <c r="AL33">
+        <v>3</v>
+      </c>
+      <c r="AM33">
+        <v>3</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>3</v>
+      </c>
+      <c r="AQ33">
+        <v>3</v>
+      </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>361</v>
       </c>
@@ -2260,8 +7645,35 @@
       <c r="AG34">
         <v>1</v>
       </c>
+      <c r="AI34">
+        <v>2</v>
+      </c>
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>3</v>
+      </c>
+      <c r="AL34">
+        <v>2</v>
+      </c>
+      <c r="AM34">
+        <v>3</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>3</v>
+      </c>
+      <c r="AP34">
+        <v>3</v>
+      </c>
+      <c r="AQ34">
+        <v>3</v>
+      </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>362</v>
       </c>
@@ -2364,8 +7776,32 @@
       <c r="AH35">
         <v>2</v>
       </c>
+      <c r="AJ35">
+        <v>2</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>2</v>
+      </c>
+      <c r="AM35">
+        <v>2</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>3</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>363</v>
       </c>
@@ -2471,8 +7907,29 @@
       <c r="AI36">
         <v>2</v>
       </c>
+      <c r="AK36">
+        <v>2</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
+        <v>3</v>
+      </c>
+      <c r="AN36">
+        <v>3</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>3</v>
+      </c>
+      <c r="AQ36">
+        <v>3</v>
+      </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>364</v>
       </c>
@@ -2581,8 +8038,26 @@
       <c r="AJ37">
         <v>2</v>
       </c>
+      <c r="AL37">
+        <v>2</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>2</v>
+      </c>
+      <c r="AO37">
+        <v>3</v>
+      </c>
+      <c r="AP37">
+        <v>3</v>
+      </c>
+      <c r="AQ37">
+        <v>3</v>
+      </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>365</v>
       </c>
@@ -2694,8 +8169,23 @@
       <c r="AK38">
         <v>2</v>
       </c>
+      <c r="AM38">
+        <v>2</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>3</v>
+      </c>
+      <c r="AP38">
+        <v>3</v>
+      </c>
+      <c r="AQ38">
+        <v>3</v>
+      </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>366</v>
       </c>
@@ -2810,8 +8300,20 @@
       <c r="AL39">
         <v>2</v>
       </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <v>2</v>
+      </c>
+      <c r="AQ39">
+        <v>3</v>
+      </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>368</v>
       </c>
@@ -2929,8 +8431,17 @@
       <c r="AM40">
         <v>1</v>
       </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>2</v>
+      </c>
+      <c r="AQ40">
+        <v>2</v>
+      </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>370</v>
       </c>
@@ -3051,8 +8562,14 @@
       <c r="AN41">
         <v>1</v>
       </c>
+      <c r="AP41">
+        <v>2</v>
+      </c>
+      <c r="AQ41">
+        <v>2</v>
+      </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>371</v>
       </c>
@@ -3176,8 +8693,11 @@
       <c r="AO42">
         <v>2</v>
       </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>373</v>
       </c>

--- a/huddles_distance_matx.xlsx
+++ b/huddles_distance_matx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD3D1D-D524-9F47-8A91-012D2A6898DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6BC0F7-7ADB-F641-A6BC-2EAEFF5FC093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1560" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{2A0B9FA3-5F18-1A4D-9485-C69511EE20EF}"/>
+    <workbookView xWindow="1580" yWindow="1560" windowWidth="26840" windowHeight="15940" xr2:uid="{2A0B9FA3-5F18-1A4D-9485-C69511EE20EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,15 +377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36961EBB-48B8-3640-83C7-A143BF2EEA38}">
-  <dimension ref="A1:AQ43"/>
+  <dimension ref="A1:AS45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AQ43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS45" sqref="AS45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>210</v>
       </c>
@@ -450,83 +450,344 @@
         <v>273</v>
       </c>
       <c r="W1">
+        <v>291</v>
+      </c>
+      <c r="X1">
+        <v>293</v>
+      </c>
+      <c r="Y1">
         <v>310</v>
       </c>
-      <c r="X1">
+      <c r="Z1">
         <v>312</v>
       </c>
-      <c r="Y1">
+      <c r="AA1">
         <v>314</v>
       </c>
-      <c r="Z1">
+      <c r="AB1">
         <v>316</v>
       </c>
-      <c r="AA1">
+      <c r="AC1">
         <v>320</v>
       </c>
-      <c r="AB1">
+      <c r="AD1">
         <v>352</v>
       </c>
-      <c r="AC1">
+      <c r="AE1">
         <v>354</v>
       </c>
-      <c r="AD1">
+      <c r="AF1">
         <v>355</v>
       </c>
-      <c r="AE1">
+      <c r="AG1">
         <v>356</v>
       </c>
-      <c r="AF1">
+      <c r="AH1">
         <v>357</v>
       </c>
-      <c r="AG1">
+      <c r="AI1">
         <v>359</v>
       </c>
-      <c r="AH1">
+      <c r="AJ1">
         <v>361</v>
       </c>
-      <c r="AI1">
+      <c r="AK1">
         <v>362</v>
       </c>
-      <c r="AJ1">
+      <c r="AL1">
         <v>363</v>
       </c>
-      <c r="AK1">
+      <c r="AM1">
         <v>364</v>
       </c>
-      <c r="AL1">
+      <c r="AN1">
         <v>365</v>
       </c>
-      <c r="AM1">
+      <c r="AO1">
         <v>366</v>
       </c>
-      <c r="AN1">
+      <c r="AP1">
         <v>368</v>
       </c>
-      <c r="AO1">
+      <c r="AQ1">
         <v>370</v>
       </c>
-      <c r="AP1">
+      <c r="AR1">
         <v>371</v>
       </c>
-      <c r="AQ1">
+      <c r="AS1">
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>210</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>10</v>
+      </c>
+      <c r="Z2">
+        <v>10</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AB2">
+        <v>10</v>
+      </c>
+      <c r="AC2">
+        <v>10</v>
+      </c>
+      <c r="AD2">
+        <v>10</v>
+      </c>
+      <c r="AE2">
+        <v>10</v>
+      </c>
+      <c r="AF2">
+        <v>10</v>
+      </c>
+      <c r="AG2">
+        <v>10</v>
+      </c>
+      <c r="AH2">
+        <v>10</v>
+      </c>
+      <c r="AI2">
+        <v>10</v>
+      </c>
+      <c r="AJ2">
+        <v>10</v>
+      </c>
+      <c r="AK2">
+        <v>10</v>
+      </c>
+      <c r="AL2">
+        <v>10</v>
+      </c>
+      <c r="AM2">
+        <v>10</v>
+      </c>
+      <c r="AN2">
+        <v>10</v>
+      </c>
+      <c r="AO2">
+        <v>10</v>
+      </c>
+      <c r="AP2">
+        <v>10</v>
+      </c>
+      <c r="AQ2">
+        <v>10</v>
+      </c>
+      <c r="AR2">
+        <v>10</v>
+      </c>
+      <c r="AS2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>212</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <v>10</v>
+      </c>
+      <c r="AA3">
+        <v>10</v>
+      </c>
+      <c r="AB3">
+        <v>10</v>
+      </c>
+      <c r="AC3">
+        <v>10</v>
+      </c>
+      <c r="AD3">
+        <v>10</v>
+      </c>
+      <c r="AE3">
+        <v>10</v>
+      </c>
+      <c r="AF3">
+        <v>10</v>
+      </c>
+      <c r="AG3">
+        <v>10</v>
+      </c>
+      <c r="AH3">
+        <v>10</v>
+      </c>
+      <c r="AI3">
+        <v>10</v>
+      </c>
+      <c r="AJ3">
+        <v>10</v>
+      </c>
+      <c r="AK3">
+        <v>10</v>
+      </c>
+      <c r="AL3">
+        <v>10</v>
+      </c>
+      <c r="AM3">
+        <v>10</v>
+      </c>
+      <c r="AN3">
+        <v>10</v>
+      </c>
+      <c r="AO3">
+        <v>10</v>
+      </c>
+      <c r="AP3">
+        <v>10</v>
+      </c>
+      <c r="AQ3">
+        <v>10</v>
+      </c>
+      <c r="AR3">
+        <v>10</v>
+      </c>
+      <c r="AS3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>214</v>
       </c>
@@ -536,8 +797,131 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>10</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4">
+        <v>10</v>
+      </c>
+      <c r="AC4">
+        <v>10</v>
+      </c>
+      <c r="AD4">
+        <v>10</v>
+      </c>
+      <c r="AE4">
+        <v>10</v>
+      </c>
+      <c r="AF4">
+        <v>10</v>
+      </c>
+      <c r="AG4">
+        <v>10</v>
+      </c>
+      <c r="AH4">
+        <v>10</v>
+      </c>
+      <c r="AI4">
+        <v>10</v>
+      </c>
+      <c r="AJ4">
+        <v>10</v>
+      </c>
+      <c r="AK4">
+        <v>10</v>
+      </c>
+      <c r="AL4">
+        <v>10</v>
+      </c>
+      <c r="AM4">
+        <v>10</v>
+      </c>
+      <c r="AN4">
+        <v>10</v>
+      </c>
+      <c r="AO4">
+        <v>10</v>
+      </c>
+      <c r="AP4">
+        <v>10</v>
+      </c>
+      <c r="AQ4">
+        <v>10</v>
+      </c>
+      <c r="AR4">
+        <v>10</v>
+      </c>
+      <c r="AS4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>216</v>
       </c>
@@ -550,8 +934,128 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AA5">
+        <v>10</v>
+      </c>
+      <c r="AB5">
+        <v>10</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>10</v>
+      </c>
+      <c r="AF5">
+        <v>10</v>
+      </c>
+      <c r="AG5">
+        <v>10</v>
+      </c>
+      <c r="AH5">
+        <v>10</v>
+      </c>
+      <c r="AI5">
+        <v>10</v>
+      </c>
+      <c r="AJ5">
+        <v>10</v>
+      </c>
+      <c r="AK5">
+        <v>10</v>
+      </c>
+      <c r="AL5">
+        <v>10</v>
+      </c>
+      <c r="AM5">
+        <v>10</v>
+      </c>
+      <c r="AN5">
+        <v>10</v>
+      </c>
+      <c r="AO5">
+        <v>10</v>
+      </c>
+      <c r="AP5">
+        <v>10</v>
+      </c>
+      <c r="AQ5">
+        <v>10</v>
+      </c>
+      <c r="AR5">
+        <v>10</v>
+      </c>
+      <c r="AS5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>220</v>
       </c>
@@ -567,8 +1071,125 @@
       <c r="E6">
         <v>2</v>
       </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
+      <c r="AA6">
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <v>10</v>
+      </c>
+      <c r="AC6">
+        <v>10</v>
+      </c>
+      <c r="AD6">
+        <v>10</v>
+      </c>
+      <c r="AE6">
+        <v>10</v>
+      </c>
+      <c r="AF6">
+        <v>10</v>
+      </c>
+      <c r="AG6">
+        <v>10</v>
+      </c>
+      <c r="AH6">
+        <v>10</v>
+      </c>
+      <c r="AI6">
+        <v>10</v>
+      </c>
+      <c r="AJ6">
+        <v>10</v>
+      </c>
+      <c r="AK6">
+        <v>10</v>
+      </c>
+      <c r="AL6">
+        <v>10</v>
+      </c>
+      <c r="AM6">
+        <v>10</v>
+      </c>
+      <c r="AN6">
+        <v>10</v>
+      </c>
+      <c r="AO6">
+        <v>10</v>
+      </c>
+      <c r="AP6">
+        <v>10</v>
+      </c>
+      <c r="AQ6">
+        <v>10</v>
+      </c>
+      <c r="AR6">
+        <v>10</v>
+      </c>
+      <c r="AS6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>252</v>
       </c>
@@ -587,8 +1208,122 @@
       <c r="F7">
         <v>4</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
+        <v>10</v>
+      </c>
+      <c r="AB7">
+        <v>10</v>
+      </c>
+      <c r="AC7">
+        <v>10</v>
+      </c>
+      <c r="AD7">
+        <v>10</v>
+      </c>
+      <c r="AE7">
+        <v>10</v>
+      </c>
+      <c r="AF7">
+        <v>10</v>
+      </c>
+      <c r="AG7">
+        <v>10</v>
+      </c>
+      <c r="AH7">
+        <v>10</v>
+      </c>
+      <c r="AI7">
+        <v>10</v>
+      </c>
+      <c r="AJ7">
+        <v>10</v>
+      </c>
+      <c r="AK7">
+        <v>10</v>
+      </c>
+      <c r="AL7">
+        <v>10</v>
+      </c>
+      <c r="AM7">
+        <v>10</v>
+      </c>
+      <c r="AN7">
+        <v>10</v>
+      </c>
+      <c r="AO7">
+        <v>10</v>
+      </c>
+      <c r="AP7">
+        <v>10</v>
+      </c>
+      <c r="AQ7">
+        <v>10</v>
+      </c>
+      <c r="AR7">
+        <v>10</v>
+      </c>
+      <c r="AS7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>254</v>
       </c>
@@ -610,8 +1345,119 @@
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <v>10</v>
+      </c>
+      <c r="AA8">
+        <v>10</v>
+      </c>
+      <c r="AB8">
+        <v>10</v>
+      </c>
+      <c r="AC8">
+        <v>10</v>
+      </c>
+      <c r="AD8">
+        <v>10</v>
+      </c>
+      <c r="AE8">
+        <v>10</v>
+      </c>
+      <c r="AF8">
+        <v>10</v>
+      </c>
+      <c r="AG8">
+        <v>10</v>
+      </c>
+      <c r="AH8">
+        <v>10</v>
+      </c>
+      <c r="AI8">
+        <v>10</v>
+      </c>
+      <c r="AJ8">
+        <v>10</v>
+      </c>
+      <c r="AK8">
+        <v>10</v>
+      </c>
+      <c r="AL8">
+        <v>10</v>
+      </c>
+      <c r="AM8">
+        <v>10</v>
+      </c>
+      <c r="AN8">
+        <v>10</v>
+      </c>
+      <c r="AO8">
+        <v>10</v>
+      </c>
+      <c r="AP8">
+        <v>10</v>
+      </c>
+      <c r="AQ8">
+        <v>10</v>
+      </c>
+      <c r="AR8">
+        <v>10</v>
+      </c>
+      <c r="AS8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>255</v>
       </c>
@@ -636,8 +1482,116 @@
       <c r="H9">
         <v>2</v>
       </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+      <c r="AA9">
+        <v>10</v>
+      </c>
+      <c r="AB9">
+        <v>10</v>
+      </c>
+      <c r="AC9">
+        <v>10</v>
+      </c>
+      <c r="AD9">
+        <v>10</v>
+      </c>
+      <c r="AE9">
+        <v>10</v>
+      </c>
+      <c r="AF9">
+        <v>10</v>
+      </c>
+      <c r="AG9">
+        <v>10</v>
+      </c>
+      <c r="AH9">
+        <v>10</v>
+      </c>
+      <c r="AI9">
+        <v>10</v>
+      </c>
+      <c r="AJ9">
+        <v>10</v>
+      </c>
+      <c r="AK9">
+        <v>10</v>
+      </c>
+      <c r="AL9">
+        <v>10</v>
+      </c>
+      <c r="AM9">
+        <v>10</v>
+      </c>
+      <c r="AN9">
+        <v>10</v>
+      </c>
+      <c r="AO9">
+        <v>10</v>
+      </c>
+      <c r="AP9">
+        <v>10</v>
+      </c>
+      <c r="AQ9">
+        <v>10</v>
+      </c>
+      <c r="AR9">
+        <v>10</v>
+      </c>
+      <c r="AS9">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>256</v>
       </c>
@@ -665,8 +1619,113 @@
       <c r="I10">
         <v>2</v>
       </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>10</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
+        <v>10</v>
+      </c>
+      <c r="AC10">
+        <v>10</v>
+      </c>
+      <c r="AD10">
+        <v>10</v>
+      </c>
+      <c r="AE10">
+        <v>10</v>
+      </c>
+      <c r="AF10">
+        <v>10</v>
+      </c>
+      <c r="AG10">
+        <v>10</v>
+      </c>
+      <c r="AH10">
+        <v>10</v>
+      </c>
+      <c r="AI10">
+        <v>10</v>
+      </c>
+      <c r="AJ10">
+        <v>10</v>
+      </c>
+      <c r="AK10">
+        <v>10</v>
+      </c>
+      <c r="AL10">
+        <v>10</v>
+      </c>
+      <c r="AM10">
+        <v>10</v>
+      </c>
+      <c r="AN10">
+        <v>10</v>
+      </c>
+      <c r="AO10">
+        <v>10</v>
+      </c>
+      <c r="AP10">
+        <v>10</v>
+      </c>
+      <c r="AQ10">
+        <v>10</v>
+      </c>
+      <c r="AR10">
+        <v>10</v>
+      </c>
+      <c r="AS10">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>257</v>
       </c>
@@ -697,8 +1756,110 @@
       <c r="J11">
         <v>2</v>
       </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <v>10</v>
+      </c>
+      <c r="AC11">
+        <v>10</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11">
+        <v>10</v>
+      </c>
+      <c r="AF11">
+        <v>10</v>
+      </c>
+      <c r="AG11">
+        <v>10</v>
+      </c>
+      <c r="AH11">
+        <v>10</v>
+      </c>
+      <c r="AI11">
+        <v>10</v>
+      </c>
+      <c r="AJ11">
+        <v>10</v>
+      </c>
+      <c r="AK11">
+        <v>10</v>
+      </c>
+      <c r="AL11">
+        <v>10</v>
+      </c>
+      <c r="AM11">
+        <v>10</v>
+      </c>
+      <c r="AN11">
+        <v>10</v>
+      </c>
+      <c r="AO11">
+        <v>10</v>
+      </c>
+      <c r="AP11">
+        <v>10</v>
+      </c>
+      <c r="AQ11">
+        <v>10</v>
+      </c>
+      <c r="AR11">
+        <v>10</v>
+      </c>
+      <c r="AS11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>259</v>
       </c>
@@ -732,8 +1893,107 @@
       <c r="K12">
         <v>1</v>
       </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12">
+        <v>10</v>
+      </c>
+      <c r="AC12">
+        <v>10</v>
+      </c>
+      <c r="AD12">
+        <v>10</v>
+      </c>
+      <c r="AE12">
+        <v>10</v>
+      </c>
+      <c r="AF12">
+        <v>10</v>
+      </c>
+      <c r="AG12">
+        <v>10</v>
+      </c>
+      <c r="AH12">
+        <v>10</v>
+      </c>
+      <c r="AI12">
+        <v>10</v>
+      </c>
+      <c r="AJ12">
+        <v>10</v>
+      </c>
+      <c r="AK12">
+        <v>10</v>
+      </c>
+      <c r="AL12">
+        <v>10</v>
+      </c>
+      <c r="AM12">
+        <v>10</v>
+      </c>
+      <c r="AN12">
+        <v>10</v>
+      </c>
+      <c r="AO12">
+        <v>10</v>
+      </c>
+      <c r="AP12">
+        <v>10</v>
+      </c>
+      <c r="AQ12">
+        <v>10</v>
+      </c>
+      <c r="AR12">
+        <v>10</v>
+      </c>
+      <c r="AS12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>261</v>
       </c>
@@ -770,8 +2030,104 @@
       <c r="L13">
         <v>1</v>
       </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+      <c r="AA13">
+        <v>10</v>
+      </c>
+      <c r="AB13">
+        <v>10</v>
+      </c>
+      <c r="AC13">
+        <v>10</v>
+      </c>
+      <c r="AD13">
+        <v>10</v>
+      </c>
+      <c r="AE13">
+        <v>10</v>
+      </c>
+      <c r="AF13">
+        <v>10</v>
+      </c>
+      <c r="AG13">
+        <v>10</v>
+      </c>
+      <c r="AH13">
+        <v>10</v>
+      </c>
+      <c r="AI13">
+        <v>10</v>
+      </c>
+      <c r="AJ13">
+        <v>10</v>
+      </c>
+      <c r="AK13">
+        <v>10</v>
+      </c>
+      <c r="AL13">
+        <v>10</v>
+      </c>
+      <c r="AM13">
+        <v>10</v>
+      </c>
+      <c r="AN13">
+        <v>10</v>
+      </c>
+      <c r="AO13">
+        <v>10</v>
+      </c>
+      <c r="AP13">
+        <v>10</v>
+      </c>
+      <c r="AQ13">
+        <v>10</v>
+      </c>
+      <c r="AR13">
+        <v>10</v>
+      </c>
+      <c r="AS13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>262</v>
       </c>
@@ -811,8 +2167,101 @@
       <c r="M14">
         <v>2</v>
       </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <v>10</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
+        <v>10</v>
+      </c>
+      <c r="AB14">
+        <v>10</v>
+      </c>
+      <c r="AC14">
+        <v>10</v>
+      </c>
+      <c r="AD14">
+        <v>10</v>
+      </c>
+      <c r="AE14">
+        <v>10</v>
+      </c>
+      <c r="AF14">
+        <v>10</v>
+      </c>
+      <c r="AG14">
+        <v>10</v>
+      </c>
+      <c r="AH14">
+        <v>10</v>
+      </c>
+      <c r="AI14">
+        <v>10</v>
+      </c>
+      <c r="AJ14">
+        <v>10</v>
+      </c>
+      <c r="AK14">
+        <v>10</v>
+      </c>
+      <c r="AL14">
+        <v>10</v>
+      </c>
+      <c r="AM14">
+        <v>10</v>
+      </c>
+      <c r="AN14">
+        <v>10</v>
+      </c>
+      <c r="AO14">
+        <v>10</v>
+      </c>
+      <c r="AP14">
+        <v>10</v>
+      </c>
+      <c r="AQ14">
+        <v>10</v>
+      </c>
+      <c r="AR14">
+        <v>10</v>
+      </c>
+      <c r="AS14">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>263</v>
       </c>
@@ -855,8 +2304,98 @@
       <c r="N15">
         <v>2</v>
       </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>4</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>10</v>
+      </c>
+      <c r="AA15">
+        <v>10</v>
+      </c>
+      <c r="AB15">
+        <v>10</v>
+      </c>
+      <c r="AC15">
+        <v>10</v>
+      </c>
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15">
+        <v>10</v>
+      </c>
+      <c r="AF15">
+        <v>10</v>
+      </c>
+      <c r="AG15">
+        <v>10</v>
+      </c>
+      <c r="AH15">
+        <v>10</v>
+      </c>
+      <c r="AI15">
+        <v>10</v>
+      </c>
+      <c r="AJ15">
+        <v>10</v>
+      </c>
+      <c r="AK15">
+        <v>10</v>
+      </c>
+      <c r="AL15">
+        <v>10</v>
+      </c>
+      <c r="AM15">
+        <v>10</v>
+      </c>
+      <c r="AN15">
+        <v>10</v>
+      </c>
+      <c r="AO15">
+        <v>10</v>
+      </c>
+      <c r="AP15">
+        <v>10</v>
+      </c>
+      <c r="AQ15">
+        <v>10</v>
+      </c>
+      <c r="AR15">
+        <v>10</v>
+      </c>
+      <c r="AS15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>264</v>
       </c>
@@ -902,8 +2441,95 @@
       <c r="O16">
         <v>2</v>
       </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>4</v>
+      </c>
+      <c r="X16">
+        <v>4</v>
+      </c>
+      <c r="Y16">
+        <v>10</v>
+      </c>
+      <c r="Z16">
+        <v>10</v>
+      </c>
+      <c r="AA16">
+        <v>10</v>
+      </c>
+      <c r="AB16">
+        <v>10</v>
+      </c>
+      <c r="AC16">
+        <v>10</v>
+      </c>
+      <c r="AD16">
+        <v>10</v>
+      </c>
+      <c r="AE16">
+        <v>10</v>
+      </c>
+      <c r="AF16">
+        <v>10</v>
+      </c>
+      <c r="AG16">
+        <v>10</v>
+      </c>
+      <c r="AH16">
+        <v>10</v>
+      </c>
+      <c r="AI16">
+        <v>10</v>
+      </c>
+      <c r="AJ16">
+        <v>10</v>
+      </c>
+      <c r="AK16">
+        <v>10</v>
+      </c>
+      <c r="AL16">
+        <v>10</v>
+      </c>
+      <c r="AM16">
+        <v>10</v>
+      </c>
+      <c r="AN16">
+        <v>10</v>
+      </c>
+      <c r="AO16">
+        <v>10</v>
+      </c>
+      <c r="AP16">
+        <v>10</v>
+      </c>
+      <c r="AQ16">
+        <v>10</v>
+      </c>
+      <c r="AR16">
+        <v>10</v>
+      </c>
+      <c r="AS16">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>265</v>
       </c>
@@ -952,8 +2578,92 @@
       <c r="P17">
         <v>2</v>
       </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <v>10</v>
+      </c>
+      <c r="AA17">
+        <v>10</v>
+      </c>
+      <c r="AB17">
+        <v>10</v>
+      </c>
+      <c r="AC17">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>10</v>
+      </c>
+      <c r="AE17">
+        <v>10</v>
+      </c>
+      <c r="AF17">
+        <v>10</v>
+      </c>
+      <c r="AG17">
+        <v>10</v>
+      </c>
+      <c r="AH17">
+        <v>10</v>
+      </c>
+      <c r="AI17">
+        <v>10</v>
+      </c>
+      <c r="AJ17">
+        <v>10</v>
+      </c>
+      <c r="AK17">
+        <v>10</v>
+      </c>
+      <c r="AL17">
+        <v>10</v>
+      </c>
+      <c r="AM17">
+        <v>10</v>
+      </c>
+      <c r="AN17">
+        <v>10</v>
+      </c>
+      <c r="AO17">
+        <v>10</v>
+      </c>
+      <c r="AP17">
+        <v>10</v>
+      </c>
+      <c r="AQ17">
+        <v>10</v>
+      </c>
+      <c r="AR17">
+        <v>10</v>
+      </c>
+      <c r="AS17">
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>266</v>
       </c>
@@ -1005,8 +2715,89 @@
       <c r="Q18">
         <v>2</v>
       </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="Y18">
+        <v>10</v>
+      </c>
+      <c r="Z18">
+        <v>10</v>
+      </c>
+      <c r="AA18">
+        <v>10</v>
+      </c>
+      <c r="AB18">
+        <v>10</v>
+      </c>
+      <c r="AC18">
+        <v>10</v>
+      </c>
+      <c r="AD18">
+        <v>10</v>
+      </c>
+      <c r="AE18">
+        <v>10</v>
+      </c>
+      <c r="AF18">
+        <v>10</v>
+      </c>
+      <c r="AG18">
+        <v>10</v>
+      </c>
+      <c r="AH18">
+        <v>10</v>
+      </c>
+      <c r="AI18">
+        <v>10</v>
+      </c>
+      <c r="AJ18">
+        <v>10</v>
+      </c>
+      <c r="AK18">
+        <v>10</v>
+      </c>
+      <c r="AL18">
+        <v>10</v>
+      </c>
+      <c r="AM18">
+        <v>10</v>
+      </c>
+      <c r="AN18">
+        <v>10</v>
+      </c>
+      <c r="AO18">
+        <v>10</v>
+      </c>
+      <c r="AP18">
+        <v>10</v>
+      </c>
+      <c r="AQ18">
+        <v>10</v>
+      </c>
+      <c r="AR18">
+        <v>10</v>
+      </c>
+      <c r="AS18">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>268</v>
       </c>
@@ -1061,8 +2852,86 @@
       <c r="R19">
         <v>1</v>
       </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>4</v>
+      </c>
+      <c r="X19">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>10</v>
+      </c>
+      <c r="Z19">
+        <v>10</v>
+      </c>
+      <c r="AA19">
+        <v>10</v>
+      </c>
+      <c r="AB19">
+        <v>10</v>
+      </c>
+      <c r="AC19">
+        <v>10</v>
+      </c>
+      <c r="AD19">
+        <v>10</v>
+      </c>
+      <c r="AE19">
+        <v>10</v>
+      </c>
+      <c r="AF19">
+        <v>10</v>
+      </c>
+      <c r="AG19">
+        <v>10</v>
+      </c>
+      <c r="AH19">
+        <v>10</v>
+      </c>
+      <c r="AI19">
+        <v>10</v>
+      </c>
+      <c r="AJ19">
+        <v>10</v>
+      </c>
+      <c r="AK19">
+        <v>10</v>
+      </c>
+      <c r="AL19">
+        <v>10</v>
+      </c>
+      <c r="AM19">
+        <v>10</v>
+      </c>
+      <c r="AN19">
+        <v>10</v>
+      </c>
+      <c r="AO19">
+        <v>10</v>
+      </c>
+      <c r="AP19">
+        <v>10</v>
+      </c>
+      <c r="AQ19">
+        <v>10</v>
+      </c>
+      <c r="AR19">
+        <v>10</v>
+      </c>
+      <c r="AS19">
+        <v>10</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>270</v>
       </c>
@@ -1120,8 +2989,83 @@
       <c r="S20">
         <v>1</v>
       </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <v>10</v>
+      </c>
+      <c r="Z20">
+        <v>10</v>
+      </c>
+      <c r="AA20">
+        <v>10</v>
+      </c>
+      <c r="AB20">
+        <v>10</v>
+      </c>
+      <c r="AC20">
+        <v>10</v>
+      </c>
+      <c r="AD20">
+        <v>10</v>
+      </c>
+      <c r="AE20">
+        <v>10</v>
+      </c>
+      <c r="AF20">
+        <v>10</v>
+      </c>
+      <c r="AG20">
+        <v>10</v>
+      </c>
+      <c r="AH20">
+        <v>10</v>
+      </c>
+      <c r="AI20">
+        <v>10</v>
+      </c>
+      <c r="AJ20">
+        <v>10</v>
+      </c>
+      <c r="AK20">
+        <v>10</v>
+      </c>
+      <c r="AL20">
+        <v>10</v>
+      </c>
+      <c r="AM20">
+        <v>10</v>
+      </c>
+      <c r="AN20">
+        <v>10</v>
+      </c>
+      <c r="AO20">
+        <v>10</v>
+      </c>
+      <c r="AP20">
+        <v>10</v>
+      </c>
+      <c r="AQ20">
+        <v>10</v>
+      </c>
+      <c r="AR20">
+        <v>10</v>
+      </c>
+      <c r="AS20">
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>271</v>
       </c>
@@ -1182,8 +3126,80 @@
       <c r="T21">
         <v>2</v>
       </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>4</v>
+      </c>
+      <c r="X21">
+        <v>4</v>
+      </c>
+      <c r="Y21">
+        <v>10</v>
+      </c>
+      <c r="Z21">
+        <v>10</v>
+      </c>
+      <c r="AA21">
+        <v>10</v>
+      </c>
+      <c r="AB21">
+        <v>10</v>
+      </c>
+      <c r="AC21">
+        <v>10</v>
+      </c>
+      <c r="AD21">
+        <v>10</v>
+      </c>
+      <c r="AE21">
+        <v>10</v>
+      </c>
+      <c r="AF21">
+        <v>10</v>
+      </c>
+      <c r="AG21">
+        <v>10</v>
+      </c>
+      <c r="AH21">
+        <v>10</v>
+      </c>
+      <c r="AI21">
+        <v>10</v>
+      </c>
+      <c r="AJ21">
+        <v>10</v>
+      </c>
+      <c r="AK21">
+        <v>10</v>
+      </c>
+      <c r="AL21">
+        <v>10</v>
+      </c>
+      <c r="AM21">
+        <v>10</v>
+      </c>
+      <c r="AN21">
+        <v>10</v>
+      </c>
+      <c r="AO21">
+        <v>10</v>
+      </c>
+      <c r="AP21">
+        <v>10</v>
+      </c>
+      <c r="AQ21">
+        <v>10</v>
+      </c>
+      <c r="AR21">
+        <v>10</v>
+      </c>
+      <c r="AS21">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>273</v>
       </c>
@@ -1247,2062 +3263,3155 @@
       <c r="U22">
         <v>1</v>
       </c>
+      <c r="W22">
+        <v>4</v>
+      </c>
+      <c r="X22">
+        <v>4</v>
+      </c>
+      <c r="Y22">
+        <v>10</v>
+      </c>
+      <c r="Z22">
+        <v>10</v>
+      </c>
+      <c r="AA22">
+        <v>10</v>
+      </c>
+      <c r="AB22">
+        <v>10</v>
+      </c>
+      <c r="AC22">
+        <v>10</v>
+      </c>
+      <c r="AD22">
+        <v>10</v>
+      </c>
+      <c r="AE22">
+        <v>10</v>
+      </c>
+      <c r="AF22">
+        <v>10</v>
+      </c>
+      <c r="AG22">
+        <v>10</v>
+      </c>
+      <c r="AH22">
+        <v>10</v>
+      </c>
+      <c r="AI22">
+        <v>10</v>
+      </c>
+      <c r="AJ22">
+        <v>10</v>
+      </c>
+      <c r="AK22">
+        <v>10</v>
+      </c>
+      <c r="AL22">
+        <v>10</v>
+      </c>
+      <c r="AM22">
+        <v>10</v>
+      </c>
+      <c r="AN22">
+        <v>10</v>
+      </c>
+      <c r="AO22">
+        <v>10</v>
+      </c>
+      <c r="AP22">
+        <v>10</v>
+      </c>
+      <c r="AQ22">
+        <v>10</v>
+      </c>
+      <c r="AR22">
+        <v>10</v>
+      </c>
+      <c r="AS22">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>291</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>10</v>
+      </c>
+      <c r="Z23">
+        <v>10</v>
+      </c>
+      <c r="AA23">
+        <v>10</v>
+      </c>
+      <c r="AB23">
+        <v>10</v>
+      </c>
+      <c r="AC23">
+        <v>10</v>
+      </c>
+      <c r="AD23">
+        <v>10</v>
+      </c>
+      <c r="AE23">
+        <v>10</v>
+      </c>
+      <c r="AF23">
+        <v>10</v>
+      </c>
+      <c r="AG23">
+        <v>10</v>
+      </c>
+      <c r="AH23">
+        <v>10</v>
+      </c>
+      <c r="AI23">
+        <v>10</v>
+      </c>
+      <c r="AJ23">
+        <v>10</v>
+      </c>
+      <c r="AK23">
+        <v>10</v>
+      </c>
+      <c r="AL23">
+        <v>10</v>
+      </c>
+      <c r="AM23">
+        <v>10</v>
+      </c>
+      <c r="AN23">
+        <v>10</v>
+      </c>
+      <c r="AO23">
+        <v>10</v>
+      </c>
+      <c r="AP23">
+        <v>10</v>
+      </c>
+      <c r="AQ23">
+        <v>10</v>
+      </c>
+      <c r="AR23">
+        <v>10</v>
+      </c>
+      <c r="AS23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>293</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>10</v>
+      </c>
+      <c r="Z24">
+        <v>10</v>
+      </c>
+      <c r="AA24">
+        <v>10</v>
+      </c>
+      <c r="AB24">
+        <v>10</v>
+      </c>
+      <c r="AC24">
+        <v>10</v>
+      </c>
+      <c r="AD24">
+        <v>10</v>
+      </c>
+      <c r="AE24">
+        <v>10</v>
+      </c>
+      <c r="AF24">
+        <v>10</v>
+      </c>
+      <c r="AG24">
+        <v>10</v>
+      </c>
+      <c r="AH24">
+        <v>10</v>
+      </c>
+      <c r="AI24">
+        <v>10</v>
+      </c>
+      <c r="AJ24">
+        <v>10</v>
+      </c>
+      <c r="AK24">
+        <v>10</v>
+      </c>
+      <c r="AL24">
+        <v>10</v>
+      </c>
+      <c r="AM24">
+        <v>10</v>
+      </c>
+      <c r="AN24">
+        <v>10</v>
+      </c>
+      <c r="AO24">
+        <v>10</v>
+      </c>
+      <c r="AP24">
+        <v>10</v>
+      </c>
+      <c r="AQ24">
+        <v>10</v>
+      </c>
+      <c r="AR24">
+        <v>10</v>
+      </c>
+      <c r="AS24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>310</v>
       </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>10</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>10</v>
-      </c>
-      <c r="K23">
-        <v>10</v>
-      </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-      <c r="M23">
-        <v>10</v>
-      </c>
-      <c r="N23">
-        <v>10</v>
-      </c>
-      <c r="O23">
-        <v>10</v>
-      </c>
-      <c r="P23">
-        <v>10</v>
-      </c>
-      <c r="Q23">
-        <v>10</v>
-      </c>
-      <c r="R23">
-        <v>10</v>
-      </c>
-      <c r="S23">
-        <v>10</v>
-      </c>
-      <c r="T23">
-        <v>10</v>
-      </c>
-      <c r="U23">
-        <v>10</v>
-      </c>
-      <c r="V23">
-        <v>10</v>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+      <c r="R25">
+        <v>10</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>10</v>
+      </c>
+      <c r="U25">
+        <v>10</v>
+      </c>
+      <c r="V25">
+        <v>10</v>
+      </c>
+      <c r="W25">
+        <v>10</v>
+      </c>
+      <c r="X25">
+        <v>10</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>2</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+      <c r="AD25">
+        <v>4</v>
+      </c>
+      <c r="AE25">
+        <v>4</v>
+      </c>
+      <c r="AF25">
+        <v>4</v>
+      </c>
+      <c r="AG25">
+        <v>4</v>
+      </c>
+      <c r="AH25">
+        <v>4</v>
+      </c>
+      <c r="AI25">
+        <v>4</v>
+      </c>
+      <c r="AJ25">
+        <v>4</v>
+      </c>
+      <c r="AK25">
+        <v>4</v>
+      </c>
+      <c r="AL25">
+        <v>4</v>
+      </c>
+      <c r="AM25">
+        <v>4</v>
+      </c>
+      <c r="AN25">
+        <v>4</v>
+      </c>
+      <c r="AO25">
+        <v>4</v>
+      </c>
+      <c r="AP25">
+        <v>4</v>
+      </c>
+      <c r="AQ25">
+        <v>4</v>
+      </c>
+      <c r="AR25">
+        <v>4</v>
+      </c>
+      <c r="AS25">
+        <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>312</v>
       </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="I24">
-        <v>10</v>
-      </c>
-      <c r="J24">
-        <v>10</v>
-      </c>
-      <c r="K24">
-        <v>10</v>
-      </c>
-      <c r="L24">
-        <v>10</v>
-      </c>
-      <c r="M24">
-        <v>10</v>
-      </c>
-      <c r="N24">
-        <v>10</v>
-      </c>
-      <c r="O24">
-        <v>10</v>
-      </c>
-      <c r="P24">
-        <v>10</v>
-      </c>
-      <c r="Q24">
-        <v>10</v>
-      </c>
-      <c r="R24">
-        <v>10</v>
-      </c>
-      <c r="S24">
-        <v>10</v>
-      </c>
-      <c r="T24">
-        <v>10</v>
-      </c>
-      <c r="U24">
-        <v>10</v>
-      </c>
-      <c r="V24">
-        <v>10</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>10</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
+      <c r="R26">
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <v>10</v>
+      </c>
+      <c r="T26">
+        <v>10</v>
+      </c>
+      <c r="U26">
+        <v>10</v>
+      </c>
+      <c r="V26">
+        <v>10</v>
+      </c>
+      <c r="W26">
+        <v>10</v>
+      </c>
+      <c r="X26">
+        <v>10</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>2</v>
+      </c>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+      <c r="AD26">
+        <v>4</v>
+      </c>
+      <c r="AE26">
+        <v>4</v>
+      </c>
+      <c r="AF26">
+        <v>4</v>
+      </c>
+      <c r="AG26">
+        <v>4</v>
+      </c>
+      <c r="AH26">
+        <v>4</v>
+      </c>
+      <c r="AI26">
+        <v>4</v>
+      </c>
+      <c r="AJ26">
+        <v>4</v>
+      </c>
+      <c r="AK26">
+        <v>4</v>
+      </c>
+      <c r="AL26">
+        <v>4</v>
+      </c>
+      <c r="AM26">
+        <v>4</v>
+      </c>
+      <c r="AN26">
+        <v>4</v>
+      </c>
+      <c r="AO26">
+        <v>4</v>
+      </c>
+      <c r="AP26">
+        <v>4</v>
+      </c>
+      <c r="AQ26">
+        <v>4</v>
+      </c>
+      <c r="AR26">
+        <v>4</v>
+      </c>
+      <c r="AS26">
+        <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>314</v>
       </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>10</v>
-      </c>
-      <c r="I25">
-        <v>10</v>
-      </c>
-      <c r="J25">
-        <v>10</v>
-      </c>
-      <c r="K25">
-        <v>10</v>
-      </c>
-      <c r="L25">
-        <v>10</v>
-      </c>
-      <c r="M25">
-        <v>10</v>
-      </c>
-      <c r="N25">
-        <v>10</v>
-      </c>
-      <c r="O25">
-        <v>10</v>
-      </c>
-      <c r="P25">
-        <v>10</v>
-      </c>
-      <c r="Q25">
-        <v>10</v>
-      </c>
-      <c r="R25">
-        <v>10</v>
-      </c>
-      <c r="S25">
-        <v>10</v>
-      </c>
-      <c r="T25">
-        <v>10</v>
-      </c>
-      <c r="U25">
-        <v>10</v>
-      </c>
-      <c r="V25">
-        <v>10</v>
-      </c>
-      <c r="W25">
-        <v>2</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>10</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <v>10</v>
+      </c>
+      <c r="U27">
+        <v>10</v>
+      </c>
+      <c r="V27">
+        <v>10</v>
+      </c>
+      <c r="W27">
+        <v>10</v>
+      </c>
+      <c r="X27">
+        <v>10</v>
+      </c>
+      <c r="Y27">
+        <v>2</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+      <c r="AD27">
+        <v>4</v>
+      </c>
+      <c r="AE27">
+        <v>4</v>
+      </c>
+      <c r="AF27">
+        <v>4</v>
+      </c>
+      <c r="AG27">
+        <v>4</v>
+      </c>
+      <c r="AH27">
+        <v>4</v>
+      </c>
+      <c r="AI27">
+        <v>4</v>
+      </c>
+      <c r="AJ27">
+        <v>4</v>
+      </c>
+      <c r="AK27">
+        <v>4</v>
+      </c>
+      <c r="AL27">
+        <v>4</v>
+      </c>
+      <c r="AM27">
+        <v>4</v>
+      </c>
+      <c r="AN27">
+        <v>4</v>
+      </c>
+      <c r="AO27">
+        <v>4</v>
+      </c>
+      <c r="AP27">
+        <v>4</v>
+      </c>
+      <c r="AQ27">
+        <v>4</v>
+      </c>
+      <c r="AR27">
+        <v>4</v>
+      </c>
+      <c r="AS27">
+        <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>316</v>
       </c>
-      <c r="B26">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>10</v>
-      </c>
-      <c r="H26">
-        <v>10</v>
-      </c>
-      <c r="I26">
-        <v>10</v>
-      </c>
-      <c r="J26">
-        <v>10</v>
-      </c>
-      <c r="K26">
-        <v>10</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26">
-        <v>10</v>
-      </c>
-      <c r="O26">
-        <v>10</v>
-      </c>
-      <c r="P26">
-        <v>10</v>
-      </c>
-      <c r="Q26">
-        <v>10</v>
-      </c>
-      <c r="R26">
-        <v>10</v>
-      </c>
-      <c r="S26">
-        <v>10</v>
-      </c>
-      <c r="T26">
-        <v>10</v>
-      </c>
-      <c r="U26">
-        <v>10</v>
-      </c>
-      <c r="V26">
-        <v>10</v>
-      </c>
-      <c r="W26">
-        <v>3</v>
-      </c>
-      <c r="X26">
-        <v>2</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>10</v>
+      </c>
+      <c r="S28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <v>10</v>
+      </c>
+      <c r="U28">
+        <v>10</v>
+      </c>
+      <c r="V28">
+        <v>10</v>
+      </c>
+      <c r="W28">
+        <v>10</v>
+      </c>
+      <c r="X28">
+        <v>10</v>
+      </c>
+      <c r="Y28">
+        <v>3</v>
+      </c>
+      <c r="Z28">
+        <v>2</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
+      </c>
+      <c r="AD28">
+        <v>4</v>
+      </c>
+      <c r="AE28">
+        <v>4</v>
+      </c>
+      <c r="AF28">
+        <v>4</v>
+      </c>
+      <c r="AG28">
+        <v>4</v>
+      </c>
+      <c r="AH28">
+        <v>4</v>
+      </c>
+      <c r="AI28">
+        <v>4</v>
+      </c>
+      <c r="AJ28">
+        <v>4</v>
+      </c>
+      <c r="AK28">
+        <v>4</v>
+      </c>
+      <c r="AL28">
+        <v>4</v>
+      </c>
+      <c r="AM28">
+        <v>4</v>
+      </c>
+      <c r="AN28">
+        <v>4</v>
+      </c>
+      <c r="AO28">
+        <v>4</v>
+      </c>
+      <c r="AP28">
+        <v>4</v>
+      </c>
+      <c r="AQ28">
+        <v>4</v>
+      </c>
+      <c r="AR28">
+        <v>4</v>
+      </c>
+      <c r="AS28">
+        <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>320</v>
       </c>
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>10</v>
-      </c>
-      <c r="H27">
-        <v>10</v>
-      </c>
-      <c r="I27">
-        <v>10</v>
-      </c>
-      <c r="J27">
-        <v>10</v>
-      </c>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27">
-        <v>10</v>
-      </c>
-      <c r="M27">
-        <v>10</v>
-      </c>
-      <c r="N27">
-        <v>10</v>
-      </c>
-      <c r="O27">
-        <v>10</v>
-      </c>
-      <c r="P27">
-        <v>10</v>
-      </c>
-      <c r="Q27">
-        <v>10</v>
-      </c>
-      <c r="R27">
-        <v>10</v>
-      </c>
-      <c r="S27">
-        <v>10</v>
-      </c>
-      <c r="T27">
-        <v>10</v>
-      </c>
-      <c r="U27">
-        <v>10</v>
-      </c>
-      <c r="V27">
-        <v>10</v>
-      </c>
-      <c r="W27">
-        <v>3</v>
-      </c>
-      <c r="X27">
-        <v>3</v>
-      </c>
-      <c r="Y27">
-        <v>3</v>
-      </c>
-      <c r="Z27">
-        <v>2</v>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
+      </c>
+      <c r="U29">
+        <v>10</v>
+      </c>
+      <c r="V29">
+        <v>10</v>
+      </c>
+      <c r="W29">
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <v>10</v>
+      </c>
+      <c r="Y29">
+        <v>3</v>
+      </c>
+      <c r="Z29">
+        <v>3</v>
+      </c>
+      <c r="AA29">
+        <v>3</v>
+      </c>
+      <c r="AB29">
+        <v>2</v>
+      </c>
+      <c r="AD29">
+        <v>4</v>
+      </c>
+      <c r="AE29">
+        <v>4</v>
+      </c>
+      <c r="AF29">
+        <v>4</v>
+      </c>
+      <c r="AG29">
+        <v>4</v>
+      </c>
+      <c r="AH29">
+        <v>4</v>
+      </c>
+      <c r="AI29">
+        <v>4</v>
+      </c>
+      <c r="AJ29">
+        <v>4</v>
+      </c>
+      <c r="AK29">
+        <v>4</v>
+      </c>
+      <c r="AL29">
+        <v>4</v>
+      </c>
+      <c r="AM29">
+        <v>4</v>
+      </c>
+      <c r="AN29">
+        <v>4</v>
+      </c>
+      <c r="AO29">
+        <v>4</v>
+      </c>
+      <c r="AP29">
+        <v>4</v>
+      </c>
+      <c r="AQ29">
+        <v>4</v>
+      </c>
+      <c r="AR29">
+        <v>4</v>
+      </c>
+      <c r="AS29">
+        <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>352</v>
       </c>
-      <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28">
-        <v>10</v>
-      </c>
-      <c r="J28">
-        <v>10</v>
-      </c>
-      <c r="K28">
-        <v>10</v>
-      </c>
-      <c r="L28">
-        <v>10</v>
-      </c>
-      <c r="M28">
-        <v>10</v>
-      </c>
-      <c r="N28">
-        <v>10</v>
-      </c>
-      <c r="O28">
-        <v>10</v>
-      </c>
-      <c r="P28">
-        <v>10</v>
-      </c>
-      <c r="Q28">
-        <v>10</v>
-      </c>
-      <c r="R28">
-        <v>10</v>
-      </c>
-      <c r="S28">
-        <v>10</v>
-      </c>
-      <c r="T28">
-        <v>10</v>
-      </c>
-      <c r="U28">
-        <v>10</v>
-      </c>
-      <c r="V28">
-        <v>10</v>
-      </c>
-      <c r="W28">
-        <v>4</v>
-      </c>
-      <c r="X28">
-        <v>4</v>
-      </c>
-      <c r="Y28">
-        <v>4</v>
-      </c>
-      <c r="Z28">
-        <v>4</v>
-      </c>
-      <c r="AA28">
-        <v>4</v>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+      <c r="P30">
+        <v>10</v>
+      </c>
+      <c r="Q30">
+        <v>10</v>
+      </c>
+      <c r="R30">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>10</v>
+      </c>
+      <c r="U30">
+        <v>10</v>
+      </c>
+      <c r="V30">
+        <v>10</v>
+      </c>
+      <c r="W30">
+        <v>10</v>
+      </c>
+      <c r="X30">
+        <v>10</v>
+      </c>
+      <c r="Y30">
+        <v>4</v>
+      </c>
+      <c r="Z30">
+        <v>4</v>
+      </c>
+      <c r="AA30">
+        <v>4</v>
+      </c>
+      <c r="AB30">
+        <v>4</v>
+      </c>
+      <c r="AC30">
+        <v>4</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>2</v>
+      </c>
+      <c r="AG30">
+        <v>2</v>
+      </c>
+      <c r="AH30">
+        <v>2</v>
+      </c>
+      <c r="AI30">
+        <v>3</v>
+      </c>
+      <c r="AJ30">
+        <v>3</v>
+      </c>
+      <c r="AK30">
+        <v>3</v>
+      </c>
+      <c r="AL30">
+        <v>3</v>
+      </c>
+      <c r="AM30">
+        <v>3</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>3</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <v>3</v>
+      </c>
+      <c r="AS30">
+        <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>354</v>
       </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
-      <c r="E29">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="I29">
-        <v>10</v>
-      </c>
-      <c r="J29">
-        <v>10</v>
-      </c>
-      <c r="K29">
-        <v>10</v>
-      </c>
-      <c r="L29">
-        <v>10</v>
-      </c>
-      <c r="M29">
-        <v>10</v>
-      </c>
-      <c r="N29">
-        <v>10</v>
-      </c>
-      <c r="O29">
-        <v>10</v>
-      </c>
-      <c r="P29">
-        <v>10</v>
-      </c>
-      <c r="Q29">
-        <v>10</v>
-      </c>
-      <c r="R29">
-        <v>10</v>
-      </c>
-      <c r="S29">
-        <v>10</v>
-      </c>
-      <c r="T29">
-        <v>10</v>
-      </c>
-      <c r="U29">
-        <v>10</v>
-      </c>
-      <c r="V29">
-        <v>10</v>
-      </c>
-      <c r="W29">
-        <v>4</v>
-      </c>
-      <c r="X29">
-        <v>4</v>
-      </c>
-      <c r="Y29">
-        <v>4</v>
-      </c>
-      <c r="Z29">
-        <v>4</v>
-      </c>
-      <c r="AA29">
-        <v>4</v>
-      </c>
-      <c r="AB29">
-        <v>1</v>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
+      <c r="R31">
+        <v>10</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>10</v>
+      </c>
+      <c r="U31">
+        <v>10</v>
+      </c>
+      <c r="V31">
+        <v>10</v>
+      </c>
+      <c r="W31">
+        <v>10</v>
+      </c>
+      <c r="X31">
+        <v>10</v>
+      </c>
+      <c r="Y31">
+        <v>4</v>
+      </c>
+      <c r="Z31">
+        <v>4</v>
+      </c>
+      <c r="AA31">
+        <v>4</v>
+      </c>
+      <c r="AB31">
+        <v>4</v>
+      </c>
+      <c r="AC31">
+        <v>4</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>2</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <v>2</v>
+      </c>
+      <c r="AI31">
+        <v>2</v>
+      </c>
+      <c r="AJ31">
+        <v>3</v>
+      </c>
+      <c r="AK31">
+        <v>3</v>
+      </c>
+      <c r="AL31">
+        <v>3</v>
+      </c>
+      <c r="AM31">
+        <v>3</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
+        <v>3</v>
+      </c>
+      <c r="AR31">
+        <v>3</v>
+      </c>
+      <c r="AS31">
+        <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>355</v>
       </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-      <c r="G30">
-        <v>10</v>
-      </c>
-      <c r="H30">
-        <v>10</v>
-      </c>
-      <c r="I30">
-        <v>10</v>
-      </c>
-      <c r="J30">
-        <v>10</v>
-      </c>
-      <c r="K30">
-        <v>10</v>
-      </c>
-      <c r="L30">
-        <v>10</v>
-      </c>
-      <c r="M30">
-        <v>10</v>
-      </c>
-      <c r="N30">
-        <v>10</v>
-      </c>
-      <c r="O30">
-        <v>10</v>
-      </c>
-      <c r="P30">
-        <v>10</v>
-      </c>
-      <c r="Q30">
-        <v>10</v>
-      </c>
-      <c r="R30">
-        <v>10</v>
-      </c>
-      <c r="S30">
-        <v>10</v>
-      </c>
-      <c r="T30">
-        <v>10</v>
-      </c>
-      <c r="U30">
-        <v>10</v>
-      </c>
-      <c r="V30">
-        <v>10</v>
-      </c>
-      <c r="W30">
-        <v>4</v>
-      </c>
-      <c r="X30">
-        <v>4</v>
-      </c>
-      <c r="Y30">
-        <v>4</v>
-      </c>
-      <c r="Z30">
-        <v>4</v>
-      </c>
-      <c r="AA30">
-        <v>4</v>
-      </c>
-      <c r="AB30">
-        <v>2</v>
-      </c>
-      <c r="AC30">
-        <v>2</v>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>10</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <v>10</v>
+      </c>
+      <c r="U32">
+        <v>10</v>
+      </c>
+      <c r="V32">
+        <v>10</v>
+      </c>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <v>10</v>
+      </c>
+      <c r="Y32">
+        <v>4</v>
+      </c>
+      <c r="Z32">
+        <v>4</v>
+      </c>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AB32">
+        <v>4</v>
+      </c>
+      <c r="AC32">
+        <v>4</v>
+      </c>
+      <c r="AD32">
+        <v>2</v>
+      </c>
+      <c r="AE32">
+        <v>2</v>
+      </c>
+      <c r="AG32">
+        <v>2</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>2</v>
+      </c>
+      <c r="AJ32">
+        <v>3</v>
+      </c>
+      <c r="AK32">
+        <v>3</v>
+      </c>
+      <c r="AL32">
+        <v>3</v>
+      </c>
+      <c r="AM32">
+        <v>3</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <v>3</v>
+      </c>
+      <c r="AQ32">
+        <v>3</v>
+      </c>
+      <c r="AR32">
+        <v>3</v>
+      </c>
+      <c r="AS32">
+        <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>356</v>
       </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31">
-        <v>10</v>
-      </c>
-      <c r="H31">
-        <v>10</v>
-      </c>
-      <c r="I31">
-        <v>10</v>
-      </c>
-      <c r="J31">
-        <v>10</v>
-      </c>
-      <c r="K31">
-        <v>10</v>
-      </c>
-      <c r="L31">
-        <v>10</v>
-      </c>
-      <c r="M31">
-        <v>10</v>
-      </c>
-      <c r="N31">
-        <v>10</v>
-      </c>
-      <c r="O31">
-        <v>10</v>
-      </c>
-      <c r="P31">
-        <v>10</v>
-      </c>
-      <c r="Q31">
-        <v>10</v>
-      </c>
-      <c r="R31">
-        <v>10</v>
-      </c>
-      <c r="S31">
-        <v>10</v>
-      </c>
-      <c r="T31">
-        <v>10</v>
-      </c>
-      <c r="U31">
-        <v>10</v>
-      </c>
-      <c r="V31">
-        <v>10</v>
-      </c>
-      <c r="W31">
-        <v>4</v>
-      </c>
-      <c r="X31">
-        <v>4</v>
-      </c>
-      <c r="Y31">
-        <v>4</v>
-      </c>
-      <c r="Z31">
-        <v>4</v>
-      </c>
-      <c r="AA31">
-        <v>4</v>
-      </c>
-      <c r="AB31">
-        <v>2</v>
-      </c>
-      <c r="AC31">
-        <v>1</v>
-      </c>
-      <c r="AD31">
-        <v>2</v>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <v>10</v>
+      </c>
+      <c r="Q33">
+        <v>10</v>
+      </c>
+      <c r="R33">
+        <v>10</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+      <c r="T33">
+        <v>10</v>
+      </c>
+      <c r="U33">
+        <v>10</v>
+      </c>
+      <c r="V33">
+        <v>10</v>
+      </c>
+      <c r="W33">
+        <v>10</v>
+      </c>
+      <c r="X33">
+        <v>10</v>
+      </c>
+      <c r="Y33">
+        <v>4</v>
+      </c>
+      <c r="Z33">
+        <v>4</v>
+      </c>
+      <c r="AA33">
+        <v>4</v>
+      </c>
+      <c r="AB33">
+        <v>4</v>
+      </c>
+      <c r="AC33">
+        <v>4</v>
+      </c>
+      <c r="AD33">
+        <v>2</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>2</v>
+      </c>
+      <c r="AH33">
+        <v>2</v>
+      </c>
+      <c r="AI33">
+        <v>2</v>
+      </c>
+      <c r="AJ33">
+        <v>2</v>
+      </c>
+      <c r="AK33">
+        <v>3</v>
+      </c>
+      <c r="AL33">
+        <v>3</v>
+      </c>
+      <c r="AM33">
+        <v>3</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>3</v>
+      </c>
+      <c r="AQ33">
+        <v>3</v>
+      </c>
+      <c r="AR33">
+        <v>3</v>
+      </c>
+      <c r="AS33">
+        <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>357</v>
       </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
-      <c r="G32">
-        <v>10</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="J32">
-        <v>10</v>
-      </c>
-      <c r="K32">
-        <v>10</v>
-      </c>
-      <c r="L32">
-        <v>10</v>
-      </c>
-      <c r="M32">
-        <v>10</v>
-      </c>
-      <c r="N32">
-        <v>10</v>
-      </c>
-      <c r="O32">
-        <v>10</v>
-      </c>
-      <c r="P32">
-        <v>10</v>
-      </c>
-      <c r="Q32">
-        <v>10</v>
-      </c>
-      <c r="R32">
-        <v>10</v>
-      </c>
-      <c r="S32">
-        <v>10</v>
-      </c>
-      <c r="T32">
-        <v>10</v>
-      </c>
-      <c r="U32">
-        <v>10</v>
-      </c>
-      <c r="V32">
-        <v>10</v>
-      </c>
-      <c r="W32">
-        <v>4</v>
-      </c>
-      <c r="X32">
-        <v>4</v>
-      </c>
-      <c r="Y32">
-        <v>4</v>
-      </c>
-      <c r="Z32">
-        <v>4</v>
-      </c>
-      <c r="AA32">
-        <v>4</v>
-      </c>
-      <c r="AB32">
-        <v>2</v>
-      </c>
-      <c r="AC32">
-        <v>2</v>
-      </c>
-      <c r="AD32">
-        <v>1</v>
-      </c>
-      <c r="AE32">
-        <v>2</v>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <v>10</v>
+      </c>
+      <c r="Q34">
+        <v>10</v>
+      </c>
+      <c r="R34">
+        <v>10</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34">
+        <v>10</v>
+      </c>
+      <c r="V34">
+        <v>10</v>
+      </c>
+      <c r="W34">
+        <v>10</v>
+      </c>
+      <c r="X34">
+        <v>10</v>
+      </c>
+      <c r="Y34">
+        <v>4</v>
+      </c>
+      <c r="Z34">
+        <v>4</v>
+      </c>
+      <c r="AA34">
+        <v>4</v>
+      </c>
+      <c r="AB34">
+        <v>4</v>
+      </c>
+      <c r="AC34">
+        <v>4</v>
+      </c>
+      <c r="AD34">
+        <v>2</v>
+      </c>
+      <c r="AE34">
+        <v>2</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>2</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
+      </c>
+      <c r="AJ34">
+        <v>2</v>
+      </c>
+      <c r="AK34">
+        <v>3</v>
+      </c>
+      <c r="AL34">
+        <v>3</v>
+      </c>
+      <c r="AM34">
+        <v>3</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>3</v>
+      </c>
+      <c r="AP34">
+        <v>3</v>
+      </c>
+      <c r="AQ34">
+        <v>3</v>
+      </c>
+      <c r="AR34">
+        <v>3</v>
+      </c>
+      <c r="AS34">
+        <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>359</v>
       </c>
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
-      <c r="F33">
-        <v>10</v>
-      </c>
-      <c r="G33">
-        <v>10</v>
-      </c>
-      <c r="H33">
-        <v>10</v>
-      </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="J33">
-        <v>10</v>
-      </c>
-      <c r="K33">
-        <v>10</v>
-      </c>
-      <c r="L33">
-        <v>10</v>
-      </c>
-      <c r="M33">
-        <v>10</v>
-      </c>
-      <c r="N33">
-        <v>10</v>
-      </c>
-      <c r="O33">
-        <v>10</v>
-      </c>
-      <c r="P33">
-        <v>10</v>
-      </c>
-      <c r="Q33">
-        <v>10</v>
-      </c>
-      <c r="R33">
-        <v>10</v>
-      </c>
-      <c r="S33">
-        <v>10</v>
-      </c>
-      <c r="T33">
-        <v>10</v>
-      </c>
-      <c r="U33">
-        <v>10</v>
-      </c>
-      <c r="V33">
-        <v>10</v>
-      </c>
-      <c r="W33">
-        <v>4</v>
-      </c>
-      <c r="X33">
-        <v>4</v>
-      </c>
-      <c r="Y33">
-        <v>4</v>
-      </c>
-      <c r="Z33">
-        <v>4</v>
-      </c>
-      <c r="AA33">
-        <v>4</v>
-      </c>
-      <c r="AB33">
-        <v>3</v>
-      </c>
-      <c r="AC33">
-        <v>2</v>
-      </c>
-      <c r="AD33">
-        <v>2</v>
-      </c>
-      <c r="AE33">
-        <v>2</v>
-      </c>
-      <c r="AF33">
-        <v>1</v>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>10</v>
+      </c>
+      <c r="Q35">
+        <v>10</v>
+      </c>
+      <c r="R35">
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35">
+        <v>10</v>
+      </c>
+      <c r="U35">
+        <v>10</v>
+      </c>
+      <c r="V35">
+        <v>10</v>
+      </c>
+      <c r="W35">
+        <v>10</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Y35">
+        <v>4</v>
+      </c>
+      <c r="Z35">
+        <v>4</v>
+      </c>
+      <c r="AA35">
+        <v>4</v>
+      </c>
+      <c r="AB35">
+        <v>4</v>
+      </c>
+      <c r="AC35">
+        <v>4</v>
+      </c>
+      <c r="AD35">
+        <v>3</v>
+      </c>
+      <c r="AE35">
+        <v>2</v>
+      </c>
+      <c r="AF35">
+        <v>2</v>
+      </c>
+      <c r="AG35">
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>2</v>
+      </c>
+      <c r="AL35">
+        <v>2</v>
+      </c>
+      <c r="AM35">
+        <v>3</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>3</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <v>3</v>
+      </c>
+      <c r="AS35">
+        <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>361</v>
       </c>
-      <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>10</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>10</v>
-      </c>
-      <c r="J34">
-        <v>10</v>
-      </c>
-      <c r="K34">
-        <v>10</v>
-      </c>
-      <c r="L34">
-        <v>10</v>
-      </c>
-      <c r="M34">
-        <v>10</v>
-      </c>
-      <c r="N34">
-        <v>10</v>
-      </c>
-      <c r="O34">
-        <v>10</v>
-      </c>
-      <c r="P34">
-        <v>10</v>
-      </c>
-      <c r="Q34">
-        <v>10</v>
-      </c>
-      <c r="R34">
-        <v>10</v>
-      </c>
-      <c r="S34">
-        <v>10</v>
-      </c>
-      <c r="T34">
-        <v>10</v>
-      </c>
-      <c r="U34">
-        <v>10</v>
-      </c>
-      <c r="V34">
-        <v>10</v>
-      </c>
-      <c r="W34">
-        <v>4</v>
-      </c>
-      <c r="X34">
-        <v>4</v>
-      </c>
-      <c r="Y34">
-        <v>4</v>
-      </c>
-      <c r="Z34">
-        <v>4</v>
-      </c>
-      <c r="AA34">
-        <v>4</v>
-      </c>
-      <c r="AB34">
-        <v>3</v>
-      </c>
-      <c r="AC34">
-        <v>3</v>
-      </c>
-      <c r="AD34">
-        <v>3</v>
-      </c>
-      <c r="AE34">
-        <v>2</v>
-      </c>
-      <c r="AF34">
-        <v>2</v>
-      </c>
-      <c r="AG34">
-        <v>1</v>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>10</v>
+      </c>
+      <c r="N36">
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <v>10</v>
+      </c>
+      <c r="P36">
+        <v>10</v>
+      </c>
+      <c r="Q36">
+        <v>10</v>
+      </c>
+      <c r="R36">
+        <v>10</v>
+      </c>
+      <c r="S36">
+        <v>10</v>
+      </c>
+      <c r="T36">
+        <v>10</v>
+      </c>
+      <c r="U36">
+        <v>10</v>
+      </c>
+      <c r="V36">
+        <v>10</v>
+      </c>
+      <c r="W36">
+        <v>10</v>
+      </c>
+      <c r="X36">
+        <v>10</v>
+      </c>
+      <c r="Y36">
+        <v>4</v>
+      </c>
+      <c r="Z36">
+        <v>4</v>
+      </c>
+      <c r="AA36">
+        <v>4</v>
+      </c>
+      <c r="AB36">
+        <v>4</v>
+      </c>
+      <c r="AC36">
+        <v>4</v>
+      </c>
+      <c r="AD36">
+        <v>3</v>
+      </c>
+      <c r="AE36">
+        <v>3</v>
+      </c>
+      <c r="AF36">
+        <v>3</v>
+      </c>
+      <c r="AG36">
+        <v>2</v>
+      </c>
+      <c r="AH36">
+        <v>2</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>2</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
+        <v>3</v>
+      </c>
+      <c r="AN36">
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>3</v>
+      </c>
+      <c r="AQ36">
+        <v>3</v>
+      </c>
+      <c r="AR36">
+        <v>3</v>
+      </c>
+      <c r="AS36">
+        <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>362</v>
       </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>10</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>10</v>
-      </c>
-      <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="G35">
-        <v>10</v>
-      </c>
-      <c r="H35">
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <v>10</v>
-      </c>
-      <c r="J35">
-        <v>10</v>
-      </c>
-      <c r="K35">
-        <v>10</v>
-      </c>
-      <c r="L35">
-        <v>10</v>
-      </c>
-      <c r="M35">
-        <v>10</v>
-      </c>
-      <c r="N35">
-        <v>10</v>
-      </c>
-      <c r="O35">
-        <v>10</v>
-      </c>
-      <c r="P35">
-        <v>10</v>
-      </c>
-      <c r="Q35">
-        <v>10</v>
-      </c>
-      <c r="R35">
-        <v>10</v>
-      </c>
-      <c r="S35">
-        <v>10</v>
-      </c>
-      <c r="T35">
-        <v>10</v>
-      </c>
-      <c r="U35">
-        <v>10</v>
-      </c>
-      <c r="V35">
-        <v>10</v>
-      </c>
-      <c r="W35">
-        <v>4</v>
-      </c>
-      <c r="X35">
-        <v>4</v>
-      </c>
-      <c r="Y35">
-        <v>4</v>
-      </c>
-      <c r="Z35">
-        <v>4</v>
-      </c>
-      <c r="AA35">
-        <v>4</v>
-      </c>
-      <c r="AB35">
-        <v>3</v>
-      </c>
-      <c r="AC35">
-        <v>3</v>
-      </c>
-      <c r="AD35">
-        <v>3</v>
-      </c>
-      <c r="AE35">
-        <v>3</v>
-      </c>
-      <c r="AF35">
-        <v>3</v>
-      </c>
-      <c r="AG35">
-        <v>2</v>
-      </c>
-      <c r="AH35">
-        <v>2</v>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>10</v>
+      </c>
+      <c r="M37">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37">
+        <v>10</v>
+      </c>
+      <c r="Q37">
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <v>10</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <v>10</v>
+      </c>
+      <c r="U37">
+        <v>10</v>
+      </c>
+      <c r="V37">
+        <v>10</v>
+      </c>
+      <c r="W37">
+        <v>10</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>4</v>
+      </c>
+      <c r="Z37">
+        <v>4</v>
+      </c>
+      <c r="AA37">
+        <v>4</v>
+      </c>
+      <c r="AB37">
+        <v>4</v>
+      </c>
+      <c r="AC37">
+        <v>4</v>
+      </c>
+      <c r="AD37">
+        <v>3</v>
+      </c>
+      <c r="AE37">
+        <v>3</v>
+      </c>
+      <c r="AF37">
+        <v>3</v>
+      </c>
+      <c r="AG37">
+        <v>3</v>
+      </c>
+      <c r="AH37">
+        <v>3</v>
+      </c>
+      <c r="AI37">
+        <v>2</v>
+      </c>
+      <c r="AJ37">
+        <v>2</v>
+      </c>
+      <c r="AL37">
+        <v>2</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>2</v>
+      </c>
+      <c r="AO37">
+        <v>2</v>
+      </c>
+      <c r="AP37">
+        <v>3</v>
+      </c>
+      <c r="AQ37">
+        <v>3</v>
+      </c>
+      <c r="AR37">
+        <v>3</v>
+      </c>
+      <c r="AS37">
+        <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>363</v>
       </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <v>10</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36">
-        <v>10</v>
-      </c>
-      <c r="H36">
-        <v>10</v>
-      </c>
-      <c r="I36">
-        <v>10</v>
-      </c>
-      <c r="J36">
-        <v>10</v>
-      </c>
-      <c r="K36">
-        <v>10</v>
-      </c>
-      <c r="L36">
-        <v>10</v>
-      </c>
-      <c r="M36">
-        <v>10</v>
-      </c>
-      <c r="N36">
-        <v>10</v>
-      </c>
-      <c r="O36">
-        <v>10</v>
-      </c>
-      <c r="P36">
-        <v>10</v>
-      </c>
-      <c r="Q36">
-        <v>10</v>
-      </c>
-      <c r="R36">
-        <v>10</v>
-      </c>
-      <c r="S36">
-        <v>10</v>
-      </c>
-      <c r="T36">
-        <v>10</v>
-      </c>
-      <c r="U36">
-        <v>10</v>
-      </c>
-      <c r="V36">
-        <v>10</v>
-      </c>
-      <c r="W36">
-        <v>4</v>
-      </c>
-      <c r="X36">
-        <v>4</v>
-      </c>
-      <c r="Y36">
-        <v>4</v>
-      </c>
-      <c r="Z36">
-        <v>4</v>
-      </c>
-      <c r="AA36">
-        <v>4</v>
-      </c>
-      <c r="AB36">
-        <v>3</v>
-      </c>
-      <c r="AC36">
-        <v>3</v>
-      </c>
-      <c r="AD36">
-        <v>3</v>
-      </c>
-      <c r="AE36">
-        <v>3</v>
-      </c>
-      <c r="AF36">
-        <v>3</v>
-      </c>
-      <c r="AG36">
-        <v>2</v>
-      </c>
-      <c r="AH36">
-        <v>1</v>
-      </c>
-      <c r="AI36">
-        <v>2</v>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <v>10</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <v>10</v>
+      </c>
+      <c r="P38">
+        <v>10</v>
+      </c>
+      <c r="Q38">
+        <v>10</v>
+      </c>
+      <c r="R38">
+        <v>10</v>
+      </c>
+      <c r="S38">
+        <v>10</v>
+      </c>
+      <c r="T38">
+        <v>10</v>
+      </c>
+      <c r="U38">
+        <v>10</v>
+      </c>
+      <c r="V38">
+        <v>10</v>
+      </c>
+      <c r="W38">
+        <v>10</v>
+      </c>
+      <c r="X38">
+        <v>10</v>
+      </c>
+      <c r="Y38">
+        <v>4</v>
+      </c>
+      <c r="Z38">
+        <v>4</v>
+      </c>
+      <c r="AA38">
+        <v>4</v>
+      </c>
+      <c r="AB38">
+        <v>4</v>
+      </c>
+      <c r="AC38">
+        <v>4</v>
+      </c>
+      <c r="AD38">
+        <v>3</v>
+      </c>
+      <c r="AE38">
+        <v>3</v>
+      </c>
+      <c r="AF38">
+        <v>3</v>
+      </c>
+      <c r="AG38">
+        <v>3</v>
+      </c>
+      <c r="AH38">
+        <v>3</v>
+      </c>
+      <c r="AI38">
+        <v>2</v>
+      </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>2</v>
+      </c>
+      <c r="AM38">
+        <v>2</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
+        <v>3</v>
+      </c>
+      <c r="AP38">
+        <v>3</v>
+      </c>
+      <c r="AQ38">
+        <v>3</v>
+      </c>
+      <c r="AR38">
+        <v>3</v>
+      </c>
+      <c r="AS38">
+        <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>364</v>
       </c>
-      <c r="B37">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>10</v>
-      </c>
-      <c r="E37">
-        <v>10</v>
-      </c>
-      <c r="F37">
-        <v>10</v>
-      </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-      <c r="H37">
-        <v>10</v>
-      </c>
-      <c r="I37">
-        <v>10</v>
-      </c>
-      <c r="J37">
-        <v>10</v>
-      </c>
-      <c r="K37">
-        <v>10</v>
-      </c>
-      <c r="L37">
-        <v>10</v>
-      </c>
-      <c r="M37">
-        <v>10</v>
-      </c>
-      <c r="N37">
-        <v>10</v>
-      </c>
-      <c r="O37">
-        <v>10</v>
-      </c>
-      <c r="P37">
-        <v>10</v>
-      </c>
-      <c r="Q37">
-        <v>10</v>
-      </c>
-      <c r="R37">
-        <v>10</v>
-      </c>
-      <c r="S37">
-        <v>10</v>
-      </c>
-      <c r="T37">
-        <v>10</v>
-      </c>
-      <c r="U37">
-        <v>10</v>
-      </c>
-      <c r="V37">
-        <v>10</v>
-      </c>
-      <c r="W37">
-        <v>4</v>
-      </c>
-      <c r="X37">
-        <v>4</v>
-      </c>
-      <c r="Y37">
-        <v>4</v>
-      </c>
-      <c r="Z37">
-        <v>4</v>
-      </c>
-      <c r="AA37">
-        <v>4</v>
-      </c>
-      <c r="AB37">
-        <v>3</v>
-      </c>
-      <c r="AC37">
-        <v>3</v>
-      </c>
-      <c r="AD37">
-        <v>3</v>
-      </c>
-      <c r="AE37">
-        <v>3</v>
-      </c>
-      <c r="AF37">
-        <v>3</v>
-      </c>
-      <c r="AG37">
-        <v>3</v>
-      </c>
-      <c r="AH37">
-        <v>3</v>
-      </c>
-      <c r="AI37">
-        <v>1</v>
-      </c>
-      <c r="AJ37">
-        <v>2</v>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>10</v>
+      </c>
+      <c r="P39">
+        <v>10</v>
+      </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+      <c r="R39">
+        <v>10</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>10</v>
+      </c>
+      <c r="U39">
+        <v>10</v>
+      </c>
+      <c r="V39">
+        <v>10</v>
+      </c>
+      <c r="W39">
+        <v>10</v>
+      </c>
+      <c r="X39">
+        <v>10</v>
+      </c>
+      <c r="Y39">
+        <v>4</v>
+      </c>
+      <c r="Z39">
+        <v>4</v>
+      </c>
+      <c r="AA39">
+        <v>4</v>
+      </c>
+      <c r="AB39">
+        <v>4</v>
+      </c>
+      <c r="AC39">
+        <v>4</v>
+      </c>
+      <c r="AD39">
+        <v>3</v>
+      </c>
+      <c r="AE39">
+        <v>3</v>
+      </c>
+      <c r="AF39">
+        <v>3</v>
+      </c>
+      <c r="AG39">
+        <v>3</v>
+      </c>
+      <c r="AH39">
+        <v>3</v>
+      </c>
+      <c r="AI39">
+        <v>3</v>
+      </c>
+      <c r="AJ39">
+        <v>3</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>2</v>
+      </c>
+      <c r="AN39">
+        <v>2</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>2</v>
+      </c>
+      <c r="AQ39">
+        <v>3</v>
+      </c>
+      <c r="AR39">
+        <v>3</v>
+      </c>
+      <c r="AS39">
+        <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>365</v>
       </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
-      <c r="C38">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>10</v>
-      </c>
-      <c r="E38">
-        <v>10</v>
-      </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <v>10</v>
-      </c>
-      <c r="J38">
-        <v>10</v>
-      </c>
-      <c r="K38">
-        <v>10</v>
-      </c>
-      <c r="L38">
-        <v>10</v>
-      </c>
-      <c r="M38">
-        <v>10</v>
-      </c>
-      <c r="N38">
-        <v>10</v>
-      </c>
-      <c r="O38">
-        <v>10</v>
-      </c>
-      <c r="P38">
-        <v>10</v>
-      </c>
-      <c r="Q38">
-        <v>10</v>
-      </c>
-      <c r="R38">
-        <v>10</v>
-      </c>
-      <c r="S38">
-        <v>10</v>
-      </c>
-      <c r="T38">
-        <v>10</v>
-      </c>
-      <c r="U38">
-        <v>10</v>
-      </c>
-      <c r="V38">
-        <v>10</v>
-      </c>
-      <c r="W38">
-        <v>4</v>
-      </c>
-      <c r="X38">
-        <v>4</v>
-      </c>
-      <c r="Y38">
-        <v>4</v>
-      </c>
-      <c r="Z38">
-        <v>4</v>
-      </c>
-      <c r="AA38">
-        <v>4</v>
-      </c>
-      <c r="AB38">
-        <v>3</v>
-      </c>
-      <c r="AC38">
-        <v>3</v>
-      </c>
-      <c r="AD38">
-        <v>3</v>
-      </c>
-      <c r="AE38">
-        <v>3</v>
-      </c>
-      <c r="AF38">
-        <v>3</v>
-      </c>
-      <c r="AG38">
-        <v>3</v>
-      </c>
-      <c r="AH38">
-        <v>2</v>
-      </c>
-      <c r="AI38">
-        <v>2</v>
-      </c>
-      <c r="AJ38">
-        <v>1</v>
-      </c>
-      <c r="AK38">
-        <v>2</v>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <v>10</v>
+      </c>
+      <c r="M40">
+        <v>10</v>
+      </c>
+      <c r="N40">
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>10</v>
+      </c>
+      <c r="P40">
+        <v>10</v>
+      </c>
+      <c r="Q40">
+        <v>10</v>
+      </c>
+      <c r="R40">
+        <v>10</v>
+      </c>
+      <c r="S40">
+        <v>10</v>
+      </c>
+      <c r="T40">
+        <v>10</v>
+      </c>
+      <c r="U40">
+        <v>10</v>
+      </c>
+      <c r="V40">
+        <v>10</v>
+      </c>
+      <c r="W40">
+        <v>10</v>
+      </c>
+      <c r="X40">
+        <v>10</v>
+      </c>
+      <c r="Y40">
+        <v>4</v>
+      </c>
+      <c r="Z40">
+        <v>4</v>
+      </c>
+      <c r="AA40">
+        <v>4</v>
+      </c>
+      <c r="AB40">
+        <v>4</v>
+      </c>
+      <c r="AC40">
+        <v>4</v>
+      </c>
+      <c r="AD40">
+        <v>3</v>
+      </c>
+      <c r="AE40">
+        <v>3</v>
+      </c>
+      <c r="AF40">
+        <v>3</v>
+      </c>
+      <c r="AG40">
+        <v>3</v>
+      </c>
+      <c r="AH40">
+        <v>3</v>
+      </c>
+      <c r="AI40">
+        <v>3</v>
+      </c>
+      <c r="AJ40">
+        <v>2</v>
+      </c>
+      <c r="AK40">
+        <v>2</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
+        <v>2</v>
+      </c>
+      <c r="AO40">
+        <v>2</v>
+      </c>
+      <c r="AP40">
+        <v>3</v>
+      </c>
+      <c r="AQ40">
+        <v>3</v>
+      </c>
+      <c r="AR40">
+        <v>3</v>
+      </c>
+      <c r="AS40">
+        <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>366</v>
       </c>
-      <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>10</v>
-      </c>
-      <c r="E39">
-        <v>10</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="H39">
-        <v>10</v>
-      </c>
-      <c r="I39">
-        <v>10</v>
-      </c>
-      <c r="J39">
-        <v>10</v>
-      </c>
-      <c r="K39">
-        <v>10</v>
-      </c>
-      <c r="L39">
-        <v>10</v>
-      </c>
-      <c r="M39">
-        <v>10</v>
-      </c>
-      <c r="N39">
-        <v>10</v>
-      </c>
-      <c r="O39">
-        <v>10</v>
-      </c>
-      <c r="P39">
-        <v>10</v>
-      </c>
-      <c r="Q39">
-        <v>10</v>
-      </c>
-      <c r="R39">
-        <v>10</v>
-      </c>
-      <c r="S39">
-        <v>10</v>
-      </c>
-      <c r="T39">
-        <v>10</v>
-      </c>
-      <c r="U39">
-        <v>10</v>
-      </c>
-      <c r="V39">
-        <v>10</v>
-      </c>
-      <c r="W39">
-        <v>4</v>
-      </c>
-      <c r="X39">
-        <v>4</v>
-      </c>
-      <c r="Y39">
-        <v>4</v>
-      </c>
-      <c r="Z39">
-        <v>4</v>
-      </c>
-      <c r="AA39">
-        <v>4</v>
-      </c>
-      <c r="AB39">
-        <v>3</v>
-      </c>
-      <c r="AC39">
-        <v>3</v>
-      </c>
-      <c r="AD39">
-        <v>3</v>
-      </c>
-      <c r="AE39">
-        <v>3</v>
-      </c>
-      <c r="AF39">
-        <v>3</v>
-      </c>
-      <c r="AG39">
-        <v>3</v>
-      </c>
-      <c r="AH39">
-        <v>3</v>
-      </c>
-      <c r="AI39">
-        <v>2</v>
-      </c>
-      <c r="AJ39">
-        <v>3</v>
-      </c>
-      <c r="AK39">
-        <v>1</v>
-      </c>
-      <c r="AL39">
-        <v>2</v>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>10</v>
+      </c>
+      <c r="P41">
+        <v>10</v>
+      </c>
+      <c r="Q41">
+        <v>10</v>
+      </c>
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>10</v>
+      </c>
+      <c r="T41">
+        <v>10</v>
+      </c>
+      <c r="U41">
+        <v>10</v>
+      </c>
+      <c r="V41">
+        <v>10</v>
+      </c>
+      <c r="W41">
+        <v>10</v>
+      </c>
+      <c r="X41">
+        <v>10</v>
+      </c>
+      <c r="Y41">
+        <v>4</v>
+      </c>
+      <c r="Z41">
+        <v>4</v>
+      </c>
+      <c r="AA41">
+        <v>4</v>
+      </c>
+      <c r="AB41">
+        <v>4</v>
+      </c>
+      <c r="AC41">
+        <v>4</v>
+      </c>
+      <c r="AD41">
+        <v>3</v>
+      </c>
+      <c r="AE41">
+        <v>3</v>
+      </c>
+      <c r="AF41">
+        <v>3</v>
+      </c>
+      <c r="AG41">
+        <v>3</v>
+      </c>
+      <c r="AH41">
+        <v>3</v>
+      </c>
+      <c r="AI41">
+        <v>3</v>
+      </c>
+      <c r="AJ41">
+        <v>3</v>
+      </c>
+      <c r="AK41">
+        <v>2</v>
+      </c>
+      <c r="AL41">
+        <v>3</v>
+      </c>
+      <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>2</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
+        <v>2</v>
+      </c>
+      <c r="AR41">
+        <v>2</v>
+      </c>
+      <c r="AS41">
+        <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>368</v>
       </c>
-      <c r="B40">
-        <v>10</v>
-      </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <v>10</v>
-      </c>
-      <c r="E40">
-        <v>10</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="G40">
-        <v>10</v>
-      </c>
-      <c r="H40">
-        <v>10</v>
-      </c>
-      <c r="I40">
-        <v>10</v>
-      </c>
-      <c r="J40">
-        <v>10</v>
-      </c>
-      <c r="K40">
-        <v>10</v>
-      </c>
-      <c r="L40">
-        <v>10</v>
-      </c>
-      <c r="M40">
-        <v>10</v>
-      </c>
-      <c r="N40">
-        <v>10</v>
-      </c>
-      <c r="O40">
-        <v>10</v>
-      </c>
-      <c r="P40">
-        <v>10</v>
-      </c>
-      <c r="Q40">
-        <v>10</v>
-      </c>
-      <c r="R40">
-        <v>10</v>
-      </c>
-      <c r="S40">
-        <v>10</v>
-      </c>
-      <c r="T40">
-        <v>10</v>
-      </c>
-      <c r="U40">
-        <v>10</v>
-      </c>
-      <c r="V40">
-        <v>10</v>
-      </c>
-      <c r="W40">
-        <v>4</v>
-      </c>
-      <c r="X40">
-        <v>4</v>
-      </c>
-      <c r="Y40">
-        <v>4</v>
-      </c>
-      <c r="Z40">
-        <v>4</v>
-      </c>
-      <c r="AA40">
-        <v>4</v>
-      </c>
-      <c r="AB40">
-        <v>3</v>
-      </c>
-      <c r="AC40">
-        <v>3</v>
-      </c>
-      <c r="AD40">
-        <v>3</v>
-      </c>
-      <c r="AE40">
-        <v>3</v>
-      </c>
-      <c r="AF40">
-        <v>3</v>
-      </c>
-      <c r="AG40">
-        <v>3</v>
-      </c>
-      <c r="AH40">
-        <v>3</v>
-      </c>
-      <c r="AI40">
-        <v>3</v>
-      </c>
-      <c r="AJ40">
-        <v>3</v>
-      </c>
-      <c r="AK40">
-        <v>2</v>
-      </c>
-      <c r="AL40">
-        <v>3</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>10</v>
+      </c>
+      <c r="O42">
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <v>10</v>
+      </c>
+      <c r="Q42">
+        <v>10</v>
+      </c>
+      <c r="R42">
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <v>10</v>
+      </c>
+      <c r="T42">
+        <v>10</v>
+      </c>
+      <c r="U42">
+        <v>10</v>
+      </c>
+      <c r="V42">
+        <v>10</v>
+      </c>
+      <c r="W42">
+        <v>10</v>
+      </c>
+      <c r="X42">
+        <v>10</v>
+      </c>
+      <c r="Y42">
+        <v>4</v>
+      </c>
+      <c r="Z42">
+        <v>4</v>
+      </c>
+      <c r="AA42">
+        <v>4</v>
+      </c>
+      <c r="AB42">
+        <v>4</v>
+      </c>
+      <c r="AC42">
+        <v>4</v>
+      </c>
+      <c r="AD42">
+        <v>3</v>
+      </c>
+      <c r="AE42">
+        <v>3</v>
+      </c>
+      <c r="AF42">
+        <v>3</v>
+      </c>
+      <c r="AG42">
+        <v>3</v>
+      </c>
+      <c r="AH42">
+        <v>3</v>
+      </c>
+      <c r="AI42">
+        <v>3</v>
+      </c>
+      <c r="AJ42">
+        <v>3</v>
+      </c>
+      <c r="AK42">
+        <v>3</v>
+      </c>
+      <c r="AL42">
+        <v>3</v>
+      </c>
+      <c r="AM42">
+        <v>2</v>
+      </c>
+      <c r="AN42">
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>2</v>
+      </c>
+      <c r="AS42">
+        <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>370</v>
       </c>
-      <c r="B41">
-        <v>10</v>
-      </c>
-      <c r="C41">
-        <v>10</v>
-      </c>
-      <c r="D41">
-        <v>10</v>
-      </c>
-      <c r="E41">
-        <v>10</v>
-      </c>
-      <c r="F41">
-        <v>10</v>
-      </c>
-      <c r="G41">
-        <v>10</v>
-      </c>
-      <c r="H41">
-        <v>10</v>
-      </c>
-      <c r="I41">
-        <v>10</v>
-      </c>
-      <c r="J41">
-        <v>10</v>
-      </c>
-      <c r="K41">
-        <v>10</v>
-      </c>
-      <c r="L41">
-        <v>10</v>
-      </c>
-      <c r="M41">
-        <v>10</v>
-      </c>
-      <c r="N41">
-        <v>10</v>
-      </c>
-      <c r="O41">
-        <v>10</v>
-      </c>
-      <c r="P41">
-        <v>10</v>
-      </c>
-      <c r="Q41">
-        <v>10</v>
-      </c>
-      <c r="R41">
-        <v>10</v>
-      </c>
-      <c r="S41">
-        <v>10</v>
-      </c>
-      <c r="T41">
-        <v>10</v>
-      </c>
-      <c r="U41">
-        <v>10</v>
-      </c>
-      <c r="V41">
-        <v>10</v>
-      </c>
-      <c r="W41">
-        <v>4</v>
-      </c>
-      <c r="X41">
-        <v>4</v>
-      </c>
-      <c r="Y41">
-        <v>4</v>
-      </c>
-      <c r="Z41">
-        <v>4</v>
-      </c>
-      <c r="AA41">
-        <v>4</v>
-      </c>
-      <c r="AB41">
-        <v>3</v>
-      </c>
-      <c r="AC41">
-        <v>3</v>
-      </c>
-      <c r="AD41">
-        <v>3</v>
-      </c>
-      <c r="AE41">
-        <v>3</v>
-      </c>
-      <c r="AF41">
-        <v>3</v>
-      </c>
-      <c r="AG41">
-        <v>3</v>
-      </c>
-      <c r="AH41">
-        <v>3</v>
-      </c>
-      <c r="AI41">
-        <v>3</v>
-      </c>
-      <c r="AJ41">
-        <v>3</v>
-      </c>
-      <c r="AK41">
-        <v>3</v>
-      </c>
-      <c r="AL41">
-        <v>3</v>
-      </c>
-      <c r="AM41">
-        <v>2</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>10</v>
+      </c>
+      <c r="M43">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>10</v>
+      </c>
+      <c r="P43">
+        <v>10</v>
+      </c>
+      <c r="Q43">
+        <v>10</v>
+      </c>
+      <c r="R43">
+        <v>10</v>
+      </c>
+      <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <v>10</v>
+      </c>
+      <c r="U43">
+        <v>10</v>
+      </c>
+      <c r="V43">
+        <v>10</v>
+      </c>
+      <c r="W43">
+        <v>10</v>
+      </c>
+      <c r="X43">
+        <v>10</v>
+      </c>
+      <c r="Y43">
+        <v>4</v>
+      </c>
+      <c r="Z43">
+        <v>4</v>
+      </c>
+      <c r="AA43">
+        <v>4</v>
+      </c>
+      <c r="AB43">
+        <v>4</v>
+      </c>
+      <c r="AC43">
+        <v>4</v>
+      </c>
+      <c r="AD43">
+        <v>3</v>
+      </c>
+      <c r="AE43">
+        <v>3</v>
+      </c>
+      <c r="AF43">
+        <v>3</v>
+      </c>
+      <c r="AG43">
+        <v>3</v>
+      </c>
+      <c r="AH43">
+        <v>3</v>
+      </c>
+      <c r="AI43">
+        <v>3</v>
+      </c>
+      <c r="AJ43">
+        <v>3</v>
+      </c>
+      <c r="AK43">
+        <v>3</v>
+      </c>
+      <c r="AL43">
+        <v>3</v>
+      </c>
+      <c r="AM43">
+        <v>3</v>
+      </c>
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>2</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>2</v>
+      </c>
+      <c r="AS43">
+        <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>371</v>
       </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-      <c r="C42">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>10</v>
-      </c>
-      <c r="E42">
-        <v>10</v>
-      </c>
-      <c r="F42">
-        <v>10</v>
-      </c>
-      <c r="G42">
-        <v>10</v>
-      </c>
-      <c r="H42">
-        <v>10</v>
-      </c>
-      <c r="I42">
-        <v>10</v>
-      </c>
-      <c r="J42">
-        <v>10</v>
-      </c>
-      <c r="K42">
-        <v>10</v>
-      </c>
-      <c r="L42">
-        <v>10</v>
-      </c>
-      <c r="M42">
-        <v>10</v>
-      </c>
-      <c r="N42">
-        <v>10</v>
-      </c>
-      <c r="O42">
-        <v>10</v>
-      </c>
-      <c r="P42">
-        <v>10</v>
-      </c>
-      <c r="Q42">
-        <v>10</v>
-      </c>
-      <c r="R42">
-        <v>10</v>
-      </c>
-      <c r="S42">
-        <v>10</v>
-      </c>
-      <c r="T42">
-        <v>10</v>
-      </c>
-      <c r="U42">
-        <v>10</v>
-      </c>
-      <c r="V42">
-        <v>10</v>
-      </c>
-      <c r="W42">
-        <v>4</v>
-      </c>
-      <c r="X42">
-        <v>4</v>
-      </c>
-      <c r="Y42">
-        <v>4</v>
-      </c>
-      <c r="Z42">
-        <v>4</v>
-      </c>
-      <c r="AA42">
-        <v>4</v>
-      </c>
-      <c r="AB42">
-        <v>3</v>
-      </c>
-      <c r="AC42">
-        <v>3</v>
-      </c>
-      <c r="AD42">
-        <v>3</v>
-      </c>
-      <c r="AE42">
-        <v>3</v>
-      </c>
-      <c r="AF42">
-        <v>3</v>
-      </c>
-      <c r="AG42">
-        <v>3</v>
-      </c>
-      <c r="AH42">
-        <v>3</v>
-      </c>
-      <c r="AI42">
-        <v>3</v>
-      </c>
-      <c r="AJ42">
-        <v>3</v>
-      </c>
-      <c r="AK42">
-        <v>3</v>
-      </c>
-      <c r="AL42">
-        <v>3</v>
-      </c>
-      <c r="AM42">
-        <v>2</v>
-      </c>
-      <c r="AN42">
-        <v>2</v>
-      </c>
-      <c r="AO42">
-        <v>2</v>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>10</v>
+      </c>
+      <c r="L44">
+        <v>10</v>
+      </c>
+      <c r="M44">
+        <v>10</v>
+      </c>
+      <c r="N44">
+        <v>10</v>
+      </c>
+      <c r="O44">
+        <v>10</v>
+      </c>
+      <c r="P44">
+        <v>10</v>
+      </c>
+      <c r="Q44">
+        <v>10</v>
+      </c>
+      <c r="R44">
+        <v>10</v>
+      </c>
+      <c r="S44">
+        <v>10</v>
+      </c>
+      <c r="T44">
+        <v>10</v>
+      </c>
+      <c r="U44">
+        <v>10</v>
+      </c>
+      <c r="V44">
+        <v>10</v>
+      </c>
+      <c r="W44">
+        <v>10</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Y44">
+        <v>4</v>
+      </c>
+      <c r="Z44">
+        <v>4</v>
+      </c>
+      <c r="AA44">
+        <v>4</v>
+      </c>
+      <c r="AB44">
+        <v>4</v>
+      </c>
+      <c r="AC44">
+        <v>4</v>
+      </c>
+      <c r="AD44">
+        <v>3</v>
+      </c>
+      <c r="AE44">
+        <v>3</v>
+      </c>
+      <c r="AF44">
+        <v>3</v>
+      </c>
+      <c r="AG44">
+        <v>3</v>
+      </c>
+      <c r="AH44">
+        <v>3</v>
+      </c>
+      <c r="AI44">
+        <v>3</v>
+      </c>
+      <c r="AJ44">
+        <v>3</v>
+      </c>
+      <c r="AK44">
+        <v>3</v>
+      </c>
+      <c r="AL44">
+        <v>3</v>
+      </c>
+      <c r="AM44">
+        <v>3</v>
+      </c>
+      <c r="AN44">
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <v>2</v>
+      </c>
+      <c r="AP44">
+        <v>2</v>
+      </c>
+      <c r="AQ44">
+        <v>2</v>
+      </c>
+      <c r="AS44">
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>373</v>
       </c>
-      <c r="B43">
-        <v>10</v>
-      </c>
-      <c r="C43">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>10</v>
-      </c>
-      <c r="E43">
-        <v>10</v>
-      </c>
-      <c r="F43">
-        <v>10</v>
-      </c>
-      <c r="G43">
-        <v>10</v>
-      </c>
-      <c r="H43">
-        <v>10</v>
-      </c>
-      <c r="I43">
-        <v>10</v>
-      </c>
-      <c r="J43">
-        <v>10</v>
-      </c>
-      <c r="K43">
-        <v>10</v>
-      </c>
-      <c r="L43">
-        <v>10</v>
-      </c>
-      <c r="M43">
-        <v>10</v>
-      </c>
-      <c r="N43">
-        <v>10</v>
-      </c>
-      <c r="O43">
-        <v>10</v>
-      </c>
-      <c r="P43">
-        <v>10</v>
-      </c>
-      <c r="Q43">
-        <v>10</v>
-      </c>
-      <c r="R43">
-        <v>10</v>
-      </c>
-      <c r="S43">
-        <v>10</v>
-      </c>
-      <c r="T43">
-        <v>10</v>
-      </c>
-      <c r="U43">
-        <v>10</v>
-      </c>
-      <c r="V43">
-        <v>10</v>
-      </c>
-      <c r="W43">
-        <v>4</v>
-      </c>
-      <c r="X43">
-        <v>4</v>
-      </c>
-      <c r="Y43">
-        <v>4</v>
-      </c>
-      <c r="Z43">
-        <v>4</v>
-      </c>
-      <c r="AA43">
-        <v>4</v>
-      </c>
-      <c r="AB43">
-        <v>3</v>
-      </c>
-      <c r="AC43">
-        <v>3</v>
-      </c>
-      <c r="AD43">
-        <v>3</v>
-      </c>
-      <c r="AE43">
-        <v>3</v>
-      </c>
-      <c r="AF43">
-        <v>3</v>
-      </c>
-      <c r="AG43">
-        <v>3</v>
-      </c>
-      <c r="AH43">
-        <v>3</v>
-      </c>
-      <c r="AI43">
-        <v>3</v>
-      </c>
-      <c r="AJ43">
-        <v>3</v>
-      </c>
-      <c r="AK43">
-        <v>3</v>
-      </c>
-      <c r="AL43">
-        <v>3</v>
-      </c>
-      <c r="AM43">
-        <v>3</v>
-      </c>
-      <c r="AN43">
-        <v>2</v>
-      </c>
-      <c r="AO43">
-        <v>2</v>
-      </c>
-      <c r="AP43">
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>10</v>
+      </c>
+      <c r="N45">
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
+      <c r="P45">
+        <v>10</v>
+      </c>
+      <c r="Q45">
+        <v>10</v>
+      </c>
+      <c r="R45">
+        <v>10</v>
+      </c>
+      <c r="S45">
+        <v>10</v>
+      </c>
+      <c r="T45">
+        <v>10</v>
+      </c>
+      <c r="U45">
+        <v>10</v>
+      </c>
+      <c r="V45">
+        <v>10</v>
+      </c>
+      <c r="W45">
+        <v>10</v>
+      </c>
+      <c r="X45">
+        <v>10</v>
+      </c>
+      <c r="Y45">
+        <v>4</v>
+      </c>
+      <c r="Z45">
+        <v>4</v>
+      </c>
+      <c r="AA45">
+        <v>4</v>
+      </c>
+      <c r="AB45">
+        <v>4</v>
+      </c>
+      <c r="AC45">
+        <v>4</v>
+      </c>
+      <c r="AD45">
+        <v>3</v>
+      </c>
+      <c r="AE45">
+        <v>3</v>
+      </c>
+      <c r="AF45">
+        <v>3</v>
+      </c>
+      <c r="AG45">
+        <v>3</v>
+      </c>
+      <c r="AH45">
+        <v>3</v>
+      </c>
+      <c r="AI45">
+        <v>3</v>
+      </c>
+      <c r="AJ45">
+        <v>3</v>
+      </c>
+      <c r="AK45">
+        <v>3</v>
+      </c>
+      <c r="AL45">
+        <v>3</v>
+      </c>
+      <c r="AM45">
+        <v>3</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>3</v>
+      </c>
+      <c r="AP45">
+        <v>2</v>
+      </c>
+      <c r="AQ45">
+        <v>2</v>
+      </c>
+      <c r="AR45">
         <v>1</v>
       </c>
     </row>
@@ -3315,8 +6424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C7B524-AEBC-A245-B348-AEAA9463987B}">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AQ43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="A1:AQ43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
